--- a/data/women/W_2019_12_Cup_USK.xlsx
+++ b/data/women/W_2019_12_Cup_USK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9EC45C-6D66-4E8E-9E36-208AB93F2857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3992C213-C3AF-41E3-ACB7-5B60AFC07693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8496" yWindow="-14976" windowWidth="17052" windowHeight="14568" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11112" yWindow="-15588" windowWidth="15228" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initiation" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="96">
   <si>
     <t>SALIGEROVÁ Kateřina</t>
   </si>
@@ -336,13 +336,43 @@
     <t>Received</t>
   </si>
   <si>
-    <t>Eliminace_</t>
-  </si>
-  <si>
     <t>Pool</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>Eliminace_64</t>
+  </si>
+  <si>
+    <t>Eliminace_32</t>
+  </si>
+  <si>
+    <t>Eliminace_16_A</t>
+  </si>
+  <si>
+    <t>Eliminace_8_A</t>
+  </si>
+  <si>
+    <t>Eliminace_16_B</t>
+  </si>
+  <si>
+    <t>Eliminace_16_AB</t>
+  </si>
+  <si>
+    <t>Eliminace_8_AB</t>
+  </si>
+  <si>
+    <t>Eliminace_8_B</t>
+  </si>
+  <si>
+    <t>Eliminace_8</t>
+  </si>
+  <si>
+    <t>Eliminace_4</t>
+  </si>
+  <si>
+    <t>Eliminace_2</t>
   </si>
 </sst>
 </file>
@@ -420,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -453,6 +483,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -736,7 +770,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4508,7 +4542,7 @@
   <dimension ref="A1:K254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4576,7 +4610,7 @@
         <v>66</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>28</v>
@@ -4585,7 +4619,7 @@
         <v>8</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J2" s="11">
         <v>2</v>
@@ -4611,7 +4645,7 @@
         <v>66</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>42</v>
@@ -4646,7 +4680,7 @@
         <v>66</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>20</v>
@@ -4681,7 +4715,7 @@
         <v>66</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>30</v>
@@ -4690,7 +4724,7 @@
         <v>15</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" s="11">
         <v>4</v>
@@ -4716,7 +4750,7 @@
         <v>66</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>45</v>
@@ -4725,7 +4759,7 @@
         <v>36</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J6" s="11">
         <v>4</v>
@@ -4751,7 +4785,7 @@
         <v>66</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>3</v>
@@ -4760,7 +4794,7 @@
         <v>4</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J7" s="13">
         <v>2</v>
@@ -4786,7 +4820,7 @@
         <v>66</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>29</v>
@@ -4821,7 +4855,7 @@
         <v>66</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>42</v>
@@ -4856,7 +4890,7 @@
         <v>66</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>20</v>
@@ -4865,7 +4899,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J10" s="11">
         <v>3</v>
@@ -4891,7 +4925,7 @@
         <v>66</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>30</v>
@@ -4900,7 +4934,7 @@
         <v>15</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J11" s="11">
         <v>2</v>
@@ -4926,7 +4960,7 @@
         <v>66</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>45</v>
@@ -4961,7 +4995,7 @@
         <v>66</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>3</v>
@@ -4970,7 +5004,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J13" s="13">
         <v>1</v>
@@ -4996,7 +5030,7 @@
         <v>66</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>29</v>
@@ -5005,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" s="11">
         <v>0</v>
@@ -5031,7 +5065,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>28</v>
@@ -5040,7 +5074,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15" s="11">
         <v>2</v>
@@ -5066,7 +5100,7 @@
         <v>66</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>20</v>
@@ -5075,7 +5109,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J16" s="11">
         <v>2</v>
@@ -5101,7 +5135,7 @@
         <v>66</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>30</v>
@@ -5136,7 +5170,7 @@
         <v>66</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>45</v>
@@ -5171,7 +5205,7 @@
         <v>66</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>3</v>
@@ -5180,7 +5214,7 @@
         <v>4</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" s="13">
         <v>3</v>
@@ -5206,7 +5240,7 @@
         <v>66</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>29</v>
@@ -5215,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" s="11">
         <v>1</v>
@@ -5241,7 +5275,7 @@
         <v>66</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>28</v>
@@ -5276,7 +5310,7 @@
         <v>66</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>42</v>
@@ -5311,7 +5345,7 @@
         <v>66</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>30</v>
@@ -5346,7 +5380,7 @@
         <v>66</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>45</v>
@@ -5381,7 +5415,7 @@
         <v>66</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" s="12" t="s">
         <v>3</v>
@@ -5390,7 +5424,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J25" s="13">
         <v>2</v>
@@ -5416,7 +5450,7 @@
         <v>66</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>29</v>
@@ -5451,7 +5485,7 @@
         <v>66</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>28</v>
@@ -5486,7 +5520,7 @@
         <v>66</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>42</v>
@@ -5495,7 +5529,7 @@
         <v>40</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J28" s="11">
         <v>4</v>
@@ -5521,7 +5555,7 @@
         <v>66</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>20</v>
@@ -5530,7 +5564,7 @@
         <v>21</v>
       </c>
       <c r="I29" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J29" s="11">
         <v>4</v>
@@ -5556,7 +5590,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>45</v>
@@ -5565,7 +5599,7 @@
         <v>36</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J30" s="11">
         <v>4</v>
@@ -5591,7 +5625,7 @@
         <v>66</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G31" s="12" t="s">
         <v>3</v>
@@ -5600,7 +5634,7 @@
         <v>4</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J31" s="13">
         <v>4</v>
@@ -5626,7 +5660,7 @@
         <v>66</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>29</v>
@@ -5661,7 +5695,7 @@
         <v>66</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>28</v>
@@ -5670,7 +5704,7 @@
         <v>8</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J33" s="11">
         <v>0</v>
@@ -5696,7 +5730,7 @@
         <v>66</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>42</v>
@@ -5705,7 +5739,7 @@
         <v>40</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J34" s="11">
         <v>4</v>
@@ -5731,7 +5765,7 @@
         <v>66</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>20</v>
@@ -5740,7 +5774,7 @@
         <v>21</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J35" s="11">
         <v>0</v>
@@ -5766,7 +5800,7 @@
         <v>66</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>30</v>
@@ -5801,7 +5835,7 @@
         <v>66</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G37" s="12" t="s">
         <v>3</v>
@@ -5810,7 +5844,7 @@
         <v>4</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J37" s="13">
         <v>1</v>
@@ -5836,7 +5870,7 @@
         <v>66</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>29</v>
@@ -5871,7 +5905,7 @@
         <v>66</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>28</v>
@@ -5906,7 +5940,7 @@
         <v>66</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>42</v>
@@ -5941,7 +5975,7 @@
         <v>66</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>20</v>
@@ -5976,7 +6010,7 @@
         <v>66</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>30</v>
@@ -6011,7 +6045,7 @@
         <v>66</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" s="12" t="s">
         <v>45</v>
@@ -6046,7 +6080,7 @@
         <v>66</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44" s="14" t="s">
         <v>48</v>
@@ -6081,7 +6115,7 @@
         <v>66</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G45" s="14" t="s">
         <v>16</v>
@@ -6090,7 +6124,7 @@
         <v>4</v>
       </c>
       <c r="I45" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J45" s="15">
         <v>3</v>
@@ -6116,7 +6150,7 @@
         <v>66</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" s="14" t="s">
         <v>7</v>
@@ -6125,7 +6159,7 @@
         <v>8</v>
       </c>
       <c r="I46" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J46" s="15">
         <v>4</v>
@@ -6151,7 +6185,7 @@
         <v>66</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G47" s="14" t="s">
         <v>2</v>
@@ -6160,7 +6194,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J47" s="15">
         <v>2</v>
@@ -6186,7 +6220,7 @@
         <v>66</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G48" s="14" t="s">
         <v>43</v>
@@ -6195,7 +6229,7 @@
         <v>44</v>
       </c>
       <c r="I48" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J48" s="15">
         <v>4</v>
@@ -6221,7 +6255,7 @@
         <v>66</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>34</v>
@@ -6230,7 +6264,7 @@
         <v>15</v>
       </c>
       <c r="I49" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J49" s="17">
         <v>3</v>
@@ -6256,7 +6290,7 @@
         <v>66</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" s="14" t="s">
         <v>47</v>
@@ -6265,7 +6299,7 @@
         <v>19</v>
       </c>
       <c r="I50" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J50" s="15">
         <v>2</v>
@@ -6291,7 +6325,7 @@
         <v>66</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" s="14" t="s">
         <v>16</v>
@@ -6300,7 +6334,7 @@
         <v>4</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J51" s="15">
         <v>0</v>
@@ -6326,7 +6360,7 @@
         <v>66</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G52" s="14" t="s">
         <v>7</v>
@@ -6335,7 +6369,7 @@
         <v>8</v>
       </c>
       <c r="I52" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J52" s="15">
         <v>2</v>
@@ -6361,7 +6395,7 @@
         <v>66</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" s="14" t="s">
         <v>2</v>
@@ -6370,7 +6404,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J53" s="15">
         <v>0</v>
@@ -6396,7 +6430,7 @@
         <v>66</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G54" s="14" t="s">
         <v>43</v>
@@ -6405,7 +6439,7 @@
         <v>44</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J54" s="15">
         <v>4</v>
@@ -6431,7 +6465,7 @@
         <v>66</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>34</v>
@@ -6466,7 +6500,7 @@
         <v>66</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G56" s="14" t="s">
         <v>47</v>
@@ -6501,7 +6535,7 @@
         <v>66</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G57" s="14" t="s">
         <v>48</v>
@@ -6536,7 +6570,7 @@
         <v>66</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G58" s="14" t="s">
         <v>7</v>
@@ -6545,7 +6579,7 @@
         <v>8</v>
       </c>
       <c r="I58" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J58" s="15">
         <v>4</v>
@@ -6571,7 +6605,7 @@
         <v>66</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G59" s="14" t="s">
         <v>2</v>
@@ -6580,7 +6614,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J59" s="15">
         <v>3</v>
@@ -6606,7 +6640,7 @@
         <v>66</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G60" s="14" t="s">
         <v>43</v>
@@ -6641,7 +6675,7 @@
         <v>66</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" s="16" t="s">
         <v>34</v>
@@ -6676,7 +6710,7 @@
         <v>66</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>47</v>
@@ -6711,7 +6745,7 @@
         <v>66</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>48</v>
@@ -6746,7 +6780,7 @@
         <v>66</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>16</v>
@@ -6781,7 +6815,7 @@
         <v>66</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>2</v>
@@ -6790,7 +6824,7 @@
         <v>1</v>
       </c>
       <c r="I65" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J65" s="15">
         <v>4</v>
@@ -6816,7 +6850,7 @@
         <v>66</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>43</v>
@@ -6851,7 +6885,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" s="16" t="s">
         <v>34</v>
@@ -6886,7 +6920,7 @@
         <v>66</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>47</v>
@@ -6921,7 +6955,7 @@
         <v>66</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>48</v>
@@ -6956,7 +6990,7 @@
         <v>66</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>16</v>
@@ -6991,7 +7025,7 @@
         <v>66</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G71" s="14" t="s">
         <v>7</v>
@@ -7026,7 +7060,7 @@
         <v>66</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>43</v>
@@ -7061,7 +7095,7 @@
         <v>66</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>34</v>
@@ -7096,7 +7130,7 @@
         <v>66</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>47</v>
@@ -7131,7 +7165,7 @@
         <v>66</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>48</v>
@@ -7166,7 +7200,7 @@
         <v>66</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>16</v>
@@ -7175,7 +7209,7 @@
         <v>4</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J76" s="15">
         <v>2</v>
@@ -7201,7 +7235,7 @@
         <v>66</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>7</v>
@@ -7210,7 +7244,7 @@
         <v>8</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J77" s="15">
         <v>0</v>
@@ -7236,7 +7270,7 @@
         <v>66</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>2</v>
@@ -7245,7 +7279,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J78" s="15">
         <v>2</v>
@@ -7271,7 +7305,7 @@
         <v>66</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G79" s="16" t="s">
         <v>34</v>
@@ -7280,7 +7314,7 @@
         <v>15</v>
       </c>
       <c r="I79" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J79" s="17">
         <v>3</v>
@@ -7306,7 +7340,7 @@
         <v>66</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>47</v>
@@ -7341,7 +7375,7 @@
         <v>66</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>48</v>
@@ -7350,7 +7384,7 @@
         <v>36</v>
       </c>
       <c r="I81" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J81" s="15">
         <v>4</v>
@@ -7376,7 +7410,7 @@
         <v>66</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>16</v>
@@ -7385,7 +7419,7 @@
         <v>4</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J82" s="15">
         <v>4</v>
@@ -7411,7 +7445,7 @@
         <v>66</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>7</v>
@@ -7420,7 +7454,7 @@
         <v>8</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J83" s="15">
         <v>1</v>
@@ -7446,7 +7480,7 @@
         <v>66</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>2</v>
@@ -7455,7 +7489,7 @@
         <v>1</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J84" s="15">
         <v>2</v>
@@ -7481,7 +7515,7 @@
         <v>66</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>43</v>
@@ -7516,7 +7550,7 @@
         <v>66</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>14</v>
@@ -7551,7 +7585,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>31</v>
@@ -7586,7 +7620,7 @@
         <v>66</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>13</v>
@@ -7621,7 +7655,7 @@
         <v>66</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>39</v>
@@ -7656,7 +7690,7 @@
         <v>66</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>53</v>
@@ -7691,7 +7725,7 @@
         <v>66</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>38</v>
@@ -7726,7 +7760,7 @@
         <v>66</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>0</v>
@@ -7735,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J92" s="11">
         <v>3</v>
@@ -7761,7 +7795,7 @@
         <v>66</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>31</v>
@@ -7796,7 +7830,7 @@
         <v>66</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>13</v>
@@ -7805,7 +7839,7 @@
         <v>1</v>
       </c>
       <c r="I94" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J94" s="11">
         <v>3</v>
@@ -7831,7 +7865,7 @@
         <v>66</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>39</v>
@@ -7866,7 +7900,7 @@
         <v>66</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>53</v>
@@ -7901,7 +7935,7 @@
         <v>66</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G97" s="12" t="s">
         <v>38</v>
@@ -7936,7 +7970,7 @@
         <v>66</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G98" s="10" t="s">
         <v>0</v>
@@ -7945,7 +7979,7 @@
         <v>1</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J98" s="11">
         <v>4</v>
@@ -7971,7 +8005,7 @@
         <v>66</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G99" s="10" t="s">
         <v>14</v>
@@ -7980,7 +8014,7 @@
         <v>15</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J99" s="11">
         <v>4</v>
@@ -8006,7 +8040,7 @@
         <v>66</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>13</v>
@@ -8015,7 +8049,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J100" s="11">
         <v>2</v>
@@ -8041,7 +8075,7 @@
         <v>66</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>39</v>
@@ -8076,7 +8110,7 @@
         <v>66</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>53</v>
@@ -8111,7 +8145,7 @@
         <v>66</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G103" s="12" t="s">
         <v>38</v>
@@ -8120,7 +8154,7 @@
         <v>4</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J103" s="13">
         <v>4</v>
@@ -8146,7 +8180,7 @@
         <v>66</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>0</v>
@@ -8155,7 +8189,7 @@
         <v>1</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J104" s="11">
         <v>2</v>
@@ -8181,7 +8215,7 @@
         <v>66</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>14</v>
@@ -8216,7 +8250,7 @@
         <v>66</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>31</v>
@@ -8251,7 +8285,7 @@
         <v>66</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>39</v>
@@ -8286,7 +8320,7 @@
         <v>66</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>53</v>
@@ -8321,7 +8355,7 @@
         <v>66</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G109" s="12" t="s">
         <v>38</v>
@@ -8356,7 +8390,7 @@
         <v>66</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>0</v>
@@ -8365,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J110" s="11">
         <v>0</v>
@@ -8391,7 +8425,7 @@
         <v>66</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>14</v>
@@ -8400,7 +8434,7 @@
         <v>15</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J111" s="11">
         <v>2</v>
@@ -8426,7 +8460,7 @@
         <v>66</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>31</v>
@@ -8435,7 +8469,7 @@
         <v>21</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J112" s="11">
         <v>4</v>
@@ -8461,7 +8495,7 @@
         <v>66</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>13</v>
@@ -8470,7 +8504,7 @@
         <v>1</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J113" s="11">
         <v>3</v>
@@ -8496,7 +8530,7 @@
         <v>66</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>53</v>
@@ -8531,7 +8565,7 @@
         <v>66</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G115" s="12" t="s">
         <v>38</v>
@@ -8566,7 +8600,7 @@
         <v>66</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>0</v>
@@ -8575,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J116" s="11">
         <v>0</v>
@@ -8601,7 +8635,7 @@
         <v>66</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>14</v>
@@ -8610,7 +8644,7 @@
         <v>15</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J117" s="11">
         <v>0</v>
@@ -8636,7 +8670,7 @@
         <v>66</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>31</v>
@@ -8645,7 +8679,7 @@
         <v>21</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J118" s="11">
         <v>0</v>
@@ -8671,7 +8705,7 @@
         <v>66</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>13</v>
@@ -8680,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J119" s="11">
         <v>3</v>
@@ -8706,7 +8740,7 @@
         <v>66</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>39</v>
@@ -8715,7 +8749,7 @@
         <v>40</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J120" s="11">
         <v>4</v>
@@ -8741,7 +8775,7 @@
         <v>66</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>38</v>
@@ -8750,7 +8784,7 @@
         <v>4</v>
       </c>
       <c r="I121" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J121" s="13">
         <v>1</v>
@@ -8776,7 +8810,7 @@
         <v>66</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>0</v>
@@ -8785,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J122" s="11">
         <v>2</v>
@@ -8811,7 +8845,7 @@
         <v>66</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>14</v>
@@ -8820,7 +8854,7 @@
         <v>15</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J123" s="11">
         <v>1</v>
@@ -8846,7 +8880,7 @@
         <v>66</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G124" s="10" t="s">
         <v>31</v>
@@ -8881,7 +8915,7 @@
         <v>66</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G125" s="10" t="s">
         <v>13</v>
@@ -8890,7 +8924,7 @@
         <v>1</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J125" s="11">
         <v>2</v>
@@ -8916,7 +8950,7 @@
         <v>66</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G126" s="10" t="s">
         <v>39</v>
@@ -8925,7 +8959,7 @@
         <v>40</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J126" s="11">
         <v>4</v>
@@ -8951,7 +8985,7 @@
         <v>66</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>53</v>
@@ -8986,7 +9020,7 @@
         <v>66</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G128" s="14" t="s">
         <v>46</v>
@@ -9021,7 +9055,7 @@
         <v>66</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G129" s="14" t="s">
         <v>25</v>
@@ -9030,7 +9064,7 @@
         <v>21</v>
       </c>
       <c r="I129" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J129" s="15">
         <v>4</v>
@@ -9056,7 +9090,7 @@
         <v>66</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G130" s="14" t="s">
         <v>32</v>
@@ -9091,7 +9125,7 @@
         <v>66</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G131" s="14" t="s">
         <v>49</v>
@@ -9126,7 +9160,7 @@
         <v>66</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G132" s="14" t="s">
         <v>17</v>
@@ -9161,7 +9195,7 @@
         <v>66</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G133" s="16" t="s">
         <v>5</v>
@@ -9170,7 +9204,7 @@
         <v>4</v>
       </c>
       <c r="I133" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J133" s="17">
         <v>0</v>
@@ -9196,7 +9230,7 @@
         <v>66</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>18</v>
@@ -9205,7 +9239,7 @@
         <v>19</v>
       </c>
       <c r="I134" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J134" s="15">
         <v>4</v>
@@ -9231,7 +9265,7 @@
         <v>66</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G135" s="14" t="s">
         <v>25</v>
@@ -9240,7 +9274,7 @@
         <v>21</v>
       </c>
       <c r="I135" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J135" s="15">
         <v>4</v>
@@ -9266,7 +9300,7 @@
         <v>66</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G136" s="14" t="s">
         <v>32</v>
@@ -9275,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="I136" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J136" s="15">
         <v>4</v>
@@ -9301,7 +9335,7 @@
         <v>66</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G137" s="14" t="s">
         <v>49</v>
@@ -9336,7 +9370,7 @@
         <v>66</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G138" s="14" t="s">
         <v>17</v>
@@ -9345,7 +9379,7 @@
         <v>8</v>
       </c>
       <c r="I138" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J138" s="15">
         <v>2</v>
@@ -9371,7 +9405,7 @@
         <v>66</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G139" s="16" t="s">
         <v>5</v>
@@ -9380,7 +9414,7 @@
         <v>4</v>
       </c>
       <c r="I139" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J139" s="17">
         <v>4</v>
@@ -9406,7 +9440,7 @@
         <v>66</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G140" s="14" t="s">
         <v>18</v>
@@ -9441,7 +9475,7 @@
         <v>66</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G141" s="14" t="s">
         <v>46</v>
@@ -9476,7 +9510,7 @@
         <v>66</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G142" s="14" t="s">
         <v>32</v>
@@ -9511,7 +9545,7 @@
         <v>66</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G143" s="14" t="s">
         <v>49</v>
@@ -9546,7 +9580,7 @@
         <v>66</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G144" s="14" t="s">
         <v>17</v>
@@ -9555,7 +9589,7 @@
         <v>8</v>
       </c>
       <c r="I144" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J144" s="15">
         <v>0</v>
@@ -9581,7 +9615,7 @@
         <v>66</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G145" s="16" t="s">
         <v>5</v>
@@ -9590,7 +9624,7 @@
         <v>4</v>
       </c>
       <c r="I145" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J145" s="17">
         <v>4</v>
@@ -9616,7 +9650,7 @@
         <v>66</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G146" s="14" t="s">
         <v>18</v>
@@ -9625,7 +9659,7 @@
         <v>19</v>
       </c>
       <c r="I146" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J146" s="15">
         <v>3</v>
@@ -9651,7 +9685,7 @@
         <v>66</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G147" s="14" t="s">
         <v>46</v>
@@ -9686,7 +9720,7 @@
         <v>66</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G148" s="14" t="s">
         <v>25</v>
@@ -9695,7 +9729,7 @@
         <v>21</v>
       </c>
       <c r="I148" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J148" s="15">
         <v>3</v>
@@ -9721,7 +9755,7 @@
         <v>66</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G149" s="14" t="s">
         <v>49</v>
@@ -9756,7 +9790,7 @@
         <v>66</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G150" s="14" t="s">
         <v>17</v>
@@ -9765,7 +9799,7 @@
         <v>8</v>
       </c>
       <c r="I150" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J150" s="15">
         <v>1</v>
@@ -9791,7 +9825,7 @@
         <v>66</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G151" s="16" t="s">
         <v>5</v>
@@ -9800,7 +9834,7 @@
         <v>4</v>
       </c>
       <c r="I151" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J151" s="17">
         <v>4</v>
@@ -9826,7 +9860,7 @@
         <v>66</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G152" s="14" t="s">
         <v>18</v>
@@ -9835,7 +9869,7 @@
         <v>19</v>
       </c>
       <c r="I152" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J152" s="15">
         <v>1</v>
@@ -9861,7 +9895,7 @@
         <v>66</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G153" s="14" t="s">
         <v>46</v>
@@ -9870,7 +9904,7 @@
         <v>10</v>
       </c>
       <c r="I153" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J153" s="15">
         <v>3</v>
@@ -9896,7 +9930,7 @@
         <v>66</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G154" s="14" t="s">
         <v>25</v>
@@ -9905,7 +9939,7 @@
         <v>21</v>
       </c>
       <c r="I154" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J154" s="15">
         <v>4</v>
@@ -9931,7 +9965,7 @@
         <v>66</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G155" s="14" t="s">
         <v>32</v>
@@ -9940,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="I155" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J155" s="15">
         <v>0</v>
@@ -9966,7 +10000,7 @@
         <v>66</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G156" s="14" t="s">
         <v>17</v>
@@ -9975,7 +10009,7 @@
         <v>8</v>
       </c>
       <c r="I156" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J156" s="15">
         <v>3</v>
@@ -10001,7 +10035,7 @@
         <v>66</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G157" s="16" t="s">
         <v>5</v>
@@ -10010,7 +10044,7 @@
         <v>4</v>
       </c>
       <c r="I157" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J157" s="17">
         <v>4</v>
@@ -10036,7 +10070,7 @@
         <v>66</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G158" s="14" t="s">
         <v>18</v>
@@ -10045,7 +10079,7 @@
         <v>19</v>
       </c>
       <c r="I158" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J158" s="15">
         <v>2</v>
@@ -10071,7 +10105,7 @@
         <v>66</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G159" s="14" t="s">
         <v>46</v>
@@ -10106,7 +10140,7 @@
         <v>66</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G160" s="14" t="s">
         <v>25</v>
@@ -10141,7 +10175,7 @@
         <v>66</v>
       </c>
       <c r="F161" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G161" s="14" t="s">
         <v>32</v>
@@ -10176,7 +10210,7 @@
         <v>66</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G162" s="14" t="s">
         <v>49</v>
@@ -10211,7 +10245,7 @@
         <v>66</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G163" s="16" t="s">
         <v>5</v>
@@ -10220,7 +10254,7 @@
         <v>4</v>
       </c>
       <c r="I163" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J163" s="17">
         <v>2</v>
@@ -10246,7 +10280,7 @@
         <v>66</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G164" s="14" t="s">
         <v>18</v>
@@ -10281,7 +10315,7 @@
         <v>66</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G165" s="14" t="s">
         <v>46</v>
@@ -10316,7 +10350,7 @@
         <v>66</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G166" s="14" t="s">
         <v>25</v>
@@ -10351,7 +10385,7 @@
         <v>66</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G167" s="14" t="s">
         <v>32</v>
@@ -10386,7 +10420,7 @@
         <v>66</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G168" s="14" t="s">
         <v>49</v>
@@ -10421,7 +10455,7 @@
         <v>66</v>
       </c>
       <c r="F169" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G169" s="16" t="s">
         <v>17</v>
@@ -10456,7 +10490,7 @@
         <v>66</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G170" s="10" t="s">
         <v>6</v>
@@ -10465,7 +10499,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J170" s="11">
         <v>4</v>
@@ -10491,7 +10525,7 @@
         <v>66</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G171" s="10" t="s">
         <v>35</v>
@@ -10500,7 +10534,7 @@
         <v>36</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J171" s="11">
         <v>3</v>
@@ -10526,7 +10560,7 @@
         <v>66</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G172" s="10" t="s">
         <v>41</v>
@@ -10561,7 +10595,7 @@
         <v>66</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G173" s="10" t="s">
         <v>23</v>
@@ -10596,7 +10630,7 @@
         <v>66</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G174" s="10" t="s">
         <v>50</v>
@@ -10631,7 +10665,7 @@
         <v>66</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G175" s="12" t="s">
         <v>12</v>
@@ -10640,7 +10674,7 @@
         <v>8</v>
       </c>
       <c r="I175" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J175" s="13">
         <v>4</v>
@@ -10666,7 +10700,7 @@
         <v>66</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G176" s="10" t="s">
         <v>26</v>
@@ -10701,7 +10735,7 @@
         <v>66</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G177" s="10" t="s">
         <v>35</v>
@@ -10736,7 +10770,7 @@
         <v>66</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G178" s="10" t="s">
         <v>41</v>
@@ -10771,7 +10805,7 @@
         <v>66</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G179" s="10" t="s">
         <v>23</v>
@@ -10806,7 +10840,7 @@
         <v>66</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>50</v>
@@ -10841,7 +10875,7 @@
         <v>66</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G181" s="12" t="s">
         <v>12</v>
@@ -10850,7 +10884,7 @@
         <v>8</v>
       </c>
       <c r="I181" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J181" s="13">
         <v>4</v>
@@ -10876,7 +10910,7 @@
         <v>66</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G182" s="10" t="s">
         <v>26</v>
@@ -10911,7 +10945,7 @@
         <v>66</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G183" s="10" t="s">
         <v>6</v>
@@ -10920,7 +10954,7 @@
         <v>1</v>
       </c>
       <c r="I183" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J183" s="11">
         <v>0</v>
@@ -10946,7 +10980,7 @@
         <v>66</v>
       </c>
       <c r="F184" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G184" s="10" t="s">
         <v>41</v>
@@ -10955,7 +10989,7 @@
         <v>4</v>
       </c>
       <c r="I184" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J184" s="11">
         <v>4</v>
@@ -10981,7 +11015,7 @@
         <v>66</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G185" s="10" t="s">
         <v>23</v>
@@ -10990,7 +11024,7 @@
         <v>24</v>
       </c>
       <c r="I185" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J185" s="11">
         <v>2</v>
@@ -11016,7 +11050,7 @@
         <v>66</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G186" s="10" t="s">
         <v>50</v>
@@ -11051,7 +11085,7 @@
         <v>66</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G187" s="12" t="s">
         <v>12</v>
@@ -11060,7 +11094,7 @@
         <v>8</v>
       </c>
       <c r="I187" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J187" s="13">
         <v>4</v>
@@ -11086,7 +11120,7 @@
         <v>66</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G188" s="10" t="s">
         <v>26</v>
@@ -11095,7 +11129,7 @@
         <v>21</v>
       </c>
       <c r="I188" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J188" s="11">
         <v>2</v>
@@ -11121,7 +11155,7 @@
         <v>66</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G189" s="10" t="s">
         <v>6</v>
@@ -11130,7 +11164,7 @@
         <v>1</v>
       </c>
       <c r="I189" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J189" s="11">
         <v>1</v>
@@ -11156,7 +11190,7 @@
         <v>66</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G190" s="10" t="s">
         <v>35</v>
@@ -11191,7 +11225,7 @@
         <v>66</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G191" s="10" t="s">
         <v>23</v>
@@ -11200,7 +11234,7 @@
         <v>24</v>
       </c>
       <c r="I191" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J191" s="11">
         <v>4</v>
@@ -11226,7 +11260,7 @@
         <v>66</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G192" s="10" t="s">
         <v>50</v>
@@ -11261,7 +11295,7 @@
         <v>66</v>
       </c>
       <c r="F193" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G193" s="12" t="s">
         <v>12</v>
@@ -11270,7 +11304,7 @@
         <v>8</v>
       </c>
       <c r="I193" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J193" s="13">
         <v>1</v>
@@ -11296,7 +11330,7 @@
         <v>66</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G194" s="10" t="s">
         <v>26</v>
@@ -11305,7 +11339,7 @@
         <v>21</v>
       </c>
       <c r="I194" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J194" s="11">
         <v>0</v>
@@ -11331,7 +11365,7 @@
         <v>66</v>
       </c>
       <c r="F195" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G195" s="10" t="s">
         <v>6</v>
@@ -11340,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="I195" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J195" s="11">
         <v>1</v>
@@ -11366,7 +11400,7 @@
         <v>66</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G196" s="10" t="s">
         <v>35</v>
@@ -11401,7 +11435,7 @@
         <v>66</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G197" s="10" t="s">
         <v>41</v>
@@ -11436,7 +11470,7 @@
         <v>66</v>
       </c>
       <c r="F198" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G198" s="10" t="s">
         <v>50</v>
@@ -11471,7 +11505,7 @@
         <v>66</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G199" s="12" t="s">
         <v>12</v>
@@ -11506,7 +11540,7 @@
         <v>66</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G200" s="10" t="s">
         <v>26</v>
@@ -11515,7 +11549,7 @@
         <v>21</v>
       </c>
       <c r="I200" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J200" s="11">
         <v>3</v>
@@ -11541,7 +11575,7 @@
         <v>66</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G201" s="10" t="s">
         <v>6</v>
@@ -11550,7 +11584,7 @@
         <v>1</v>
       </c>
       <c r="I201" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J201" s="11">
         <v>0</v>
@@ -11576,7 +11610,7 @@
         <v>66</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G202" s="10" t="s">
         <v>35</v>
@@ -11585,7 +11619,7 @@
         <v>36</v>
       </c>
       <c r="I202" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J202" s="11">
         <v>2</v>
@@ -11611,7 +11645,7 @@
         <v>66</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G203" s="10" t="s">
         <v>41</v>
@@ -11620,7 +11654,7 @@
         <v>4</v>
       </c>
       <c r="I203" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J203" s="11">
         <v>4</v>
@@ -11646,7 +11680,7 @@
         <v>66</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G204" s="10" t="s">
         <v>23</v>
@@ -11655,7 +11689,7 @@
         <v>24</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J204" s="11">
         <v>2</v>
@@ -11681,7 +11715,7 @@
         <v>66</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G205" s="12" t="s">
         <v>12</v>
@@ -11690,7 +11724,7 @@
         <v>8</v>
       </c>
       <c r="I205" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J205" s="13">
         <v>0</v>
@@ -11716,7 +11750,7 @@
         <v>66</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G206" s="10" t="s">
         <v>26</v>
@@ -11751,7 +11785,7 @@
         <v>66</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G207" s="10" t="s">
         <v>6</v>
@@ -11786,7 +11820,7 @@
         <v>66</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G208" s="10" t="s">
         <v>35</v>
@@ -11821,7 +11855,7 @@
         <v>66</v>
       </c>
       <c r="F209" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G209" s="10" t="s">
         <v>41</v>
@@ -11856,7 +11890,7 @@
         <v>66</v>
       </c>
       <c r="F210" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G210" s="10" t="s">
         <v>23</v>
@@ -11865,7 +11899,7 @@
         <v>24</v>
       </c>
       <c r="I210" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J210" s="11">
         <v>2</v>
@@ -11891,7 +11925,7 @@
         <v>66</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G211" s="12" t="s">
         <v>50</v>
@@ -11926,7 +11960,7 @@
         <v>66</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G212" s="14" t="s">
         <v>63</v>
@@ -11961,7 +11995,7 @@
         <v>66</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G213" s="14" t="s">
         <v>9</v>
@@ -11970,7 +12004,7 @@
         <v>10</v>
       </c>
       <c r="I213" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J213" s="15">
         <v>3</v>
@@ -11996,7 +12030,7 @@
         <v>66</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G214" s="14" t="s">
         <v>11</v>
@@ -12005,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="I214" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J214" s="15">
         <v>3</v>
@@ -12031,7 +12065,7 @@
         <v>66</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G215" s="14" t="s">
         <v>37</v>
@@ -12066,7 +12100,7 @@
         <v>66</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G216" s="14" t="s">
         <v>22</v>
@@ -12075,7 +12109,7 @@
         <v>15</v>
       </c>
       <c r="I216" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J216" s="15">
         <v>3</v>
@@ -12101,7 +12135,7 @@
         <v>66</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G217" s="16" t="s">
         <v>52</v>
@@ -12136,7 +12170,7 @@
         <v>66</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G218" s="14" t="s">
         <v>27</v>
@@ -12145,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="I218" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J218" s="15">
         <v>2</v>
@@ -12171,7 +12205,7 @@
         <v>66</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G219" s="14" t="s">
         <v>9</v>
@@ -12180,7 +12214,7 @@
         <v>10</v>
       </c>
       <c r="I219" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J219" s="15">
         <v>1</v>
@@ -12206,7 +12240,7 @@
         <v>66</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G220" s="14" t="s">
         <v>11</v>
@@ -12215,7 +12249,7 @@
         <v>1</v>
       </c>
       <c r="I220" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J220" s="15">
         <v>1</v>
@@ -12241,7 +12275,7 @@
         <v>66</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G221" s="14" t="s">
         <v>37</v>
@@ -12250,7 +12284,7 @@
         <v>21</v>
       </c>
       <c r="I221" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J221" s="15">
         <v>4</v>
@@ -12276,7 +12310,7 @@
         <v>66</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G222" s="14" t="s">
         <v>22</v>
@@ -12311,7 +12345,7 @@
         <v>66</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G223" s="16" t="s">
         <v>52</v>
@@ -12346,7 +12380,7 @@
         <v>66</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G224" s="14" t="s">
         <v>27</v>
@@ -12381,7 +12415,7 @@
         <v>66</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G225" s="14" t="s">
         <v>63</v>
@@ -12416,7 +12450,7 @@
         <v>66</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G226" s="14" t="s">
         <v>11</v>
@@ -12425,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="I226" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J226" s="15">
         <v>2</v>
@@ -12451,7 +12485,7 @@
         <v>66</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G227" s="14" t="s">
         <v>37</v>
@@ -12486,7 +12520,7 @@
         <v>66</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G228" s="14" t="s">
         <v>22</v>
@@ -12521,7 +12555,7 @@
         <v>66</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G229" s="16" t="s">
         <v>52</v>
@@ -12556,7 +12590,7 @@
         <v>66</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G230" s="14" t="s">
         <v>27</v>
@@ -12591,7 +12625,7 @@
         <v>66</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G231" s="14" t="s">
         <v>63</v>
@@ -12626,7 +12660,7 @@
         <v>66</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G232" s="14" t="s">
         <v>9</v>
@@ -12661,7 +12695,7 @@
         <v>66</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G233" s="14" t="s">
         <v>37</v>
@@ -12696,7 +12730,7 @@
         <v>66</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G234" s="14" t="s">
         <v>22</v>
@@ -12705,7 +12739,7 @@
         <v>15</v>
       </c>
       <c r="I234" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J234" s="15">
         <v>2</v>
@@ -12731,7 +12765,7 @@
         <v>66</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G235" s="16" t="s">
         <v>52</v>
@@ -12766,7 +12800,7 @@
         <v>66</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G236" s="14" t="s">
         <v>27</v>
@@ -12775,7 +12809,7 @@
         <v>1</v>
       </c>
       <c r="I236" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J236" s="15">
         <v>0</v>
@@ -12801,7 +12835,7 @@
         <v>66</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G237" s="14" t="s">
         <v>63</v>
@@ -12836,7 +12870,7 @@
         <v>66</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G238" s="14" t="s">
         <v>9</v>
@@ -12845,7 +12879,7 @@
         <v>10</v>
       </c>
       <c r="I238" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J238" s="15">
         <v>3</v>
@@ -12871,7 +12905,7 @@
         <v>66</v>
       </c>
       <c r="F239" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G239" s="14" t="s">
         <v>11</v>
@@ -12880,7 +12914,7 @@
         <v>1</v>
       </c>
       <c r="I239" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J239" s="15">
         <v>2</v>
@@ -12906,7 +12940,7 @@
         <v>66</v>
       </c>
       <c r="F240" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G240" s="14" t="s">
         <v>22</v>
@@ -12915,7 +12949,7 @@
         <v>15</v>
       </c>
       <c r="I240" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J240" s="15">
         <v>4</v>
@@ -12941,7 +12975,7 @@
         <v>66</v>
       </c>
       <c r="F241" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G241" s="16" t="s">
         <v>52</v>
@@ -12976,7 +13010,7 @@
         <v>66</v>
       </c>
       <c r="F242" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G242" s="14" t="s">
         <v>27</v>
@@ -13011,7 +13045,7 @@
         <v>66</v>
       </c>
       <c r="F243" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G243" s="14" t="s">
         <v>63</v>
@@ -13020,7 +13054,7 @@
         <v>21</v>
       </c>
       <c r="I243" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J243" s="15">
         <v>1</v>
@@ -13046,7 +13080,7 @@
         <v>66</v>
       </c>
       <c r="F244" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G244" s="14" t="s">
         <v>9</v>
@@ -13055,7 +13089,7 @@
         <v>10</v>
       </c>
       <c r="I244" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J244" s="15">
         <v>3</v>
@@ -13081,7 +13115,7 @@
         <v>66</v>
       </c>
       <c r="F245" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G245" s="14" t="s">
         <v>11</v>
@@ -13116,7 +13150,7 @@
         <v>66</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G246" s="14" t="s">
         <v>37</v>
@@ -13151,7 +13185,7 @@
         <v>66</v>
       </c>
       <c r="F247" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G247" s="16" t="s">
         <v>52</v>
@@ -13186,7 +13220,7 @@
         <v>66</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G248" s="14" t="s">
         <v>27</v>
@@ -13195,7 +13229,7 @@
         <v>1</v>
       </c>
       <c r="I248" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J248" s="15">
         <v>2</v>
@@ -13221,7 +13255,7 @@
         <v>66</v>
       </c>
       <c r="F249" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G249" s="14" t="s">
         <v>63</v>
@@ -13230,7 +13264,7 @@
         <v>21</v>
       </c>
       <c r="I249" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J249" s="15">
         <v>1</v>
@@ -13256,7 +13290,7 @@
         <v>66</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G250" s="14" t="s">
         <v>9</v>
@@ -13265,7 +13299,7 @@
         <v>10</v>
       </c>
       <c r="I250" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J250" s="15">
         <v>1</v>
@@ -13291,7 +13325,7 @@
         <v>66</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G251" s="14" t="s">
         <v>11</v>
@@ -13300,7 +13334,7 @@
         <v>1</v>
       </c>
       <c r="I251" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J251" s="15">
         <v>4</v>
@@ -13326,7 +13360,7 @@
         <v>66</v>
       </c>
       <c r="F252" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G252" s="14" t="s">
         <v>37</v>
@@ -13335,7 +13369,7 @@
         <v>21</v>
       </c>
       <c r="I252" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J252" s="15">
         <v>0</v>
@@ -13361,7 +13395,7 @@
         <v>66</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G253" s="16" t="s">
         <v>22</v>
@@ -13370,7 +13404,7 @@
         <v>15</v>
       </c>
       <c r="I253" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J253" s="17">
         <v>3</v>
@@ -13389,19 +13423,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CFA784-5D81-4A15-A22C-1FCE7244A298}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.88671875" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="0" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.33203125" customWidth="1"/>
     <col min="9" max="11" width="8.88671875" style="7"/>
@@ -13449,11 +13484,32 @@
       <c r="B2" t="s">
         <v>65</v>
       </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
       <c r="E2" t="s">
         <v>66</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="7">
+        <v>15</v>
+      </c>
+      <c r="K2" s="7">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -13463,8 +13519,32 @@
       <c r="B3" t="s">
         <v>65</v>
       </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
       <c r="E3" t="s">
         <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="7">
+        <v>13</v>
+      </c>
+      <c r="K3" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -13474,8 +13554,32 @@
       <c r="B4" t="s">
         <v>65</v>
       </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
       <c r="E4" t="s">
         <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="7">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -13485,8 +13589,32 @@
       <c r="B5" t="s">
         <v>65</v>
       </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" t="s">
         <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="7">
+        <v>15</v>
+      </c>
+      <c r="K5" s="7">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -13496,8 +13624,32 @@
       <c r="B6" t="s">
         <v>65</v>
       </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
       <c r="E6" t="s">
         <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="7">
+        <v>15</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -13507,8 +13659,32 @@
       <c r="B7" t="s">
         <v>65</v>
       </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
       <c r="E7" t="s">
         <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="7">
+        <v>5</v>
+      </c>
+      <c r="K7" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -13518,8 +13694,32 @@
       <c r="B8" t="s">
         <v>65</v>
       </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
       <c r="E8" t="s">
         <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="7">
+        <v>9</v>
+      </c>
+      <c r="K8" s="7">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -13529,8 +13729,32 @@
       <c r="B9" t="s">
         <v>65</v>
       </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
       <c r="E9" t="s">
         <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="7">
+        <v>15</v>
+      </c>
+      <c r="K9" s="7">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -13540,8 +13764,32 @@
       <c r="B10" t="s">
         <v>65</v>
       </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" t="s">
         <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="7">
+        <v>15</v>
+      </c>
+      <c r="K10" s="7">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -13551,10 +13799,4515 @@
       <c r="B11" t="s">
         <v>65</v>
       </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
       <c r="E11" t="s">
         <v>66</v>
       </c>
-    </row>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="7">
+        <v>7</v>
+      </c>
+      <c r="K11" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="7">
+        <v>9</v>
+      </c>
+      <c r="K12" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="7">
+        <v>15</v>
+      </c>
+      <c r="K13" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="7">
+        <v>15</v>
+      </c>
+      <c r="K14" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J15" s="7">
+        <v>5</v>
+      </c>
+      <c r="K15" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="7">
+        <v>10</v>
+      </c>
+      <c r="K16" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="7">
+        <v>15</v>
+      </c>
+      <c r="K17" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="7">
+        <v>15</v>
+      </c>
+      <c r="K18" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J19" s="7">
+        <v>5</v>
+      </c>
+      <c r="K19" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="7">
+        <v>15</v>
+      </c>
+      <c r="K20" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J21" s="18">
+        <v>10</v>
+      </c>
+      <c r="K21" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="7">
+        <v>15</v>
+      </c>
+      <c r="K22" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="7">
+        <v>5</v>
+      </c>
+      <c r="K23" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="7">
+        <v>15</v>
+      </c>
+      <c r="K24" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="7">
+        <v>9</v>
+      </c>
+      <c r="K25" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="7">
+        <v>12</v>
+      </c>
+      <c r="K26" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="7">
+        <v>15</v>
+      </c>
+      <c r="K27" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28" s="7">
+        <v>7</v>
+      </c>
+      <c r="K28" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="7">
+        <v>15</v>
+      </c>
+      <c r="K29" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="7">
+        <v>15</v>
+      </c>
+      <c r="K30" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J31" s="7">
+        <v>11</v>
+      </c>
+      <c r="K31" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="7">
+        <v>9</v>
+      </c>
+      <c r="K32" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="7">
+        <v>15</v>
+      </c>
+      <c r="K33" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="7">
+        <v>15</v>
+      </c>
+      <c r="K34" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J35" s="7">
+        <v>12</v>
+      </c>
+      <c r="K35" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>5</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="7">
+        <v>3</v>
+      </c>
+      <c r="K36" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" s="7">
+        <v>15</v>
+      </c>
+      <c r="K37" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="7">
+        <v>15</v>
+      </c>
+      <c r="K38" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" s="7">
+        <v>5</v>
+      </c>
+      <c r="K39" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J40" s="7">
+        <v>12</v>
+      </c>
+      <c r="K40" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H41" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="7">
+        <v>15</v>
+      </c>
+      <c r="K41" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>66</v>
+      </c>
+      <c r="F42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>29</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J42" s="7">
+        <v>13</v>
+      </c>
+      <c r="K42" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="7">
+        <v>14</v>
+      </c>
+      <c r="K43" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" t="s">
+        <v>66</v>
+      </c>
+      <c r="F44" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J44" s="7">
+        <v>13</v>
+      </c>
+      <c r="K44" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F45" t="s">
+        <v>86</v>
+      </c>
+      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="7">
+        <v>15</v>
+      </c>
+      <c r="K45" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" t="s">
+        <v>86</v>
+      </c>
+      <c r="G46" t="s">
+        <v>63</v>
+      </c>
+      <c r="H46" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" s="7">
+        <v>15</v>
+      </c>
+      <c r="K46" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" t="s">
+        <v>66</v>
+      </c>
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J47" s="7">
+        <v>5</v>
+      </c>
+      <c r="K47" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>66</v>
+      </c>
+      <c r="F48" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" s="7">
+        <v>10</v>
+      </c>
+      <c r="K48" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>66</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J49" s="7">
+        <v>15</v>
+      </c>
+      <c r="K49" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="7">
+        <v>15</v>
+      </c>
+      <c r="K50" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>66</v>
+      </c>
+      <c r="F51" t="s">
+        <v>86</v>
+      </c>
+      <c r="G51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" t="s">
+        <v>21</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J51" s="7">
+        <v>3</v>
+      </c>
+      <c r="K51" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E52" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" t="s">
+        <v>86</v>
+      </c>
+      <c r="G52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J52" s="7">
+        <v>6</v>
+      </c>
+      <c r="K52" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I53" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" s="18">
+        <v>15</v>
+      </c>
+      <c r="K53" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" s="7">
+        <v>15</v>
+      </c>
+      <c r="K54" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G55" t="s">
+        <v>0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J55" s="7">
+        <v>13</v>
+      </c>
+      <c r="K55" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J56" s="7">
+        <v>4</v>
+      </c>
+      <c r="K56" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H57" t="s">
+        <v>21</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57" s="7">
+        <v>15</v>
+      </c>
+      <c r="K57" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G58" t="s">
+        <v>16</v>
+      </c>
+      <c r="H58" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J58" s="7">
+        <v>15</v>
+      </c>
+      <c r="K58" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G59" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J59" s="7">
+        <v>11</v>
+      </c>
+      <c r="K59" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>66</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G60" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" s="7">
+        <v>15</v>
+      </c>
+      <c r="K60" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>66</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G61" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" t="s">
+        <v>8</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J61" s="7">
+        <v>14</v>
+      </c>
+      <c r="K61" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J62" s="7">
+        <v>15</v>
+      </c>
+      <c r="K62" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J63" s="7">
+        <v>8</v>
+      </c>
+      <c r="K63" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J64" s="7">
+        <v>15</v>
+      </c>
+      <c r="K64" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J65" s="7">
+        <v>7</v>
+      </c>
+      <c r="K65" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>66</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="7">
+        <v>15</v>
+      </c>
+      <c r="K66" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J67" s="7">
+        <v>8</v>
+      </c>
+      <c r="K67" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" t="s">
+        <v>66</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J68" s="7">
+        <v>12</v>
+      </c>
+      <c r="K68" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>66</v>
+      </c>
+      <c r="F69" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J69" s="18">
+        <v>15</v>
+      </c>
+      <c r="K69" s="18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s">
+        <v>11</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J70" s="7">
+        <v>15</v>
+      </c>
+      <c r="K70" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G71" t="s">
+        <v>0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J71" s="7">
+        <v>12</v>
+      </c>
+      <c r="K71" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J72" s="7">
+        <v>12</v>
+      </c>
+      <c r="K72" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G73" t="s">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J73" s="7">
+        <v>15</v>
+      </c>
+      <c r="K73" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B74" t="s">
+        <v>65</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J74" s="7">
+        <v>15</v>
+      </c>
+      <c r="K74" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G75" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J75" s="7">
+        <v>8</v>
+      </c>
+      <c r="K75" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>66</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G76" t="s">
+        <v>2</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J76" s="7">
+        <v>11</v>
+      </c>
+      <c r="K76" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B77" t="s">
+        <v>65</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>66</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J77" s="18">
+        <v>15</v>
+      </c>
+      <c r="K77" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B78" t="s">
+        <v>65</v>
+      </c>
+      <c r="C78" t="s">
+        <v>43</v>
+      </c>
+      <c r="D78" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s">
+        <v>66</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J78" s="7">
+        <v>14</v>
+      </c>
+      <c r="K78" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>15</v>
+      </c>
+      <c r="E79" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G79" t="s">
+        <v>43</v>
+      </c>
+      <c r="H79" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J79" s="7">
+        <v>15</v>
+      </c>
+      <c r="K79" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>66</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J80" s="7">
+        <v>14</v>
+      </c>
+      <c r="K80" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>66</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J81" s="7">
+        <v>15</v>
+      </c>
+      <c r="K81" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E82" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G82" t="s">
+        <v>28</v>
+      </c>
+      <c r="H82" t="s">
+        <v>8</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J82" s="7">
+        <v>12</v>
+      </c>
+      <c r="K82" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" t="s">
+        <v>28</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>66</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J83" s="7">
+        <v>15</v>
+      </c>
+      <c r="K83" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>66</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G84" t="s">
+        <v>37</v>
+      </c>
+      <c r="H84" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J84" s="7">
+        <v>15</v>
+      </c>
+      <c r="K84" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C85" t="s">
+        <v>37</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>66</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J85" s="7">
+        <v>6</v>
+      </c>
+      <c r="K85" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>66</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86" s="7">
+        <v>12</v>
+      </c>
+      <c r="K86" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s">
+        <v>26</v>
+      </c>
+      <c r="D87" t="s">
+        <v>21</v>
+      </c>
+      <c r="E87" t="s">
+        <v>66</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G87" t="s">
+        <v>38</v>
+      </c>
+      <c r="H87" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J87" s="7">
+        <v>15</v>
+      </c>
+      <c r="K87" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
+      <c r="E88" t="s">
+        <v>66</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s">
+        <v>34</v>
+      </c>
+      <c r="H88" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J88" s="7">
+        <v>15</v>
+      </c>
+      <c r="K88" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" t="s">
+        <v>66</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J89" s="7">
+        <v>13</v>
+      </c>
+      <c r="K89" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
+      <c r="C90" t="s">
+        <v>63</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+      <c r="E90" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" t="s">
+        <v>30</v>
+      </c>
+      <c r="H90" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J90" s="7">
+        <v>13</v>
+      </c>
+      <c r="K90" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91" t="s">
+        <v>30</v>
+      </c>
+      <c r="D91" t="s">
+        <v>15</v>
+      </c>
+      <c r="E91" t="s">
+        <v>66</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" t="s">
+        <v>63</v>
+      </c>
+      <c r="H91" t="s">
+        <v>21</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J91" s="7">
+        <v>15</v>
+      </c>
+      <c r="K91" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" t="s">
+        <v>25</v>
+      </c>
+      <c r="D92" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" t="s">
+        <v>66</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" t="s">
+        <v>39</v>
+      </c>
+      <c r="H92" t="s">
+        <v>40</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J92" s="7">
+        <v>9</v>
+      </c>
+      <c r="K92" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E93" t="s">
+        <v>66</v>
+      </c>
+      <c r="F93" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I93" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J93" s="18">
+        <v>15</v>
+      </c>
+      <c r="K93" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>66</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G94" t="s">
+        <v>39</v>
+      </c>
+      <c r="H94" t="s">
+        <v>40</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J94" s="7">
+        <v>14</v>
+      </c>
+      <c r="K94" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B95" t="s">
+        <v>65</v>
+      </c>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95" t="s">
+        <v>66</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" t="s">
+        <v>5</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J95" s="7">
+        <v>15</v>
+      </c>
+      <c r="K95" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B96" t="s">
+        <v>65</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>66</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G96" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J96" s="7">
+        <v>15</v>
+      </c>
+      <c r="K96" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97" t="s">
+        <v>31</v>
+      </c>
+      <c r="D97" t="s">
+        <v>21</v>
+      </c>
+      <c r="E97" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J97" s="7">
+        <v>8</v>
+      </c>
+      <c r="K97" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B98" t="s">
+        <v>65</v>
+      </c>
+      <c r="C98" t="s">
+        <v>18</v>
+      </c>
+      <c r="D98" t="s">
+        <v>19</v>
+      </c>
+      <c r="E98" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G98" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J98" s="7">
+        <v>10</v>
+      </c>
+      <c r="K98" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B99" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" t="s">
+        <v>19</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J99" s="7">
+        <v>15</v>
+      </c>
+      <c r="K99" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B100" t="s">
+        <v>65</v>
+      </c>
+      <c r="C100" t="s">
+        <v>30</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G100" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J100" s="7">
+        <v>10</v>
+      </c>
+      <c r="K100" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G101" t="s">
+        <v>30</v>
+      </c>
+      <c r="H101" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J101" s="7">
+        <v>15</v>
+      </c>
+      <c r="K101" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B102" t="s">
+        <v>65</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J102" s="7">
+        <v>15</v>
+      </c>
+      <c r="K102" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B103" t="s">
+        <v>65</v>
+      </c>
+      <c r="C103" t="s">
+        <v>28</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>66</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>8</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J103" s="7">
+        <v>13</v>
+      </c>
+      <c r="K103" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B104" t="s">
+        <v>65</v>
+      </c>
+      <c r="C104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" t="s">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>66</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>21</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J104" s="7">
+        <v>10</v>
+      </c>
+      <c r="K104" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" t="s">
+        <v>66</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G105" t="s">
+        <v>22</v>
+      </c>
+      <c r="H105" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J105" s="7">
+        <v>15</v>
+      </c>
+      <c r="K105" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" t="s">
+        <v>24</v>
+      </c>
+      <c r="E106" t="s">
+        <v>66</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G106" t="s">
+        <v>26</v>
+      </c>
+      <c r="H106" t="s">
+        <v>21</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J106" s="7">
+        <v>9</v>
+      </c>
+      <c r="K106" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B107" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" t="s">
+        <v>66</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G107" t="s">
+        <v>23</v>
+      </c>
+      <c r="H107" t="s">
+        <v>24</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J107" s="7">
+        <v>15</v>
+      </c>
+      <c r="K107" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B108" t="s">
+        <v>65</v>
+      </c>
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>66</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G108" t="s">
+        <v>7</v>
+      </c>
+      <c r="H108" t="s">
+        <v>8</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J108" s="7">
+        <v>4</v>
+      </c>
+      <c r="K108" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" t="s">
+        <v>66</v>
+      </c>
+      <c r="F109" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J109" s="18">
+        <v>15</v>
+      </c>
+      <c r="K109" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B110" t="s">
+        <v>65</v>
+      </c>
+      <c r="C110" t="s">
+        <v>39</v>
+      </c>
+      <c r="D110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110" t="s">
+        <v>66</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G110" t="s">
+        <v>14</v>
+      </c>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J110" s="7">
+        <v>9</v>
+      </c>
+      <c r="K110" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B111" t="s">
+        <v>65</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>66</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G111" t="s">
+        <v>39</v>
+      </c>
+      <c r="H111" t="s">
+        <v>40</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J111" s="7">
+        <v>15</v>
+      </c>
+      <c r="K111" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B112" t="s">
+        <v>65</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>66</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G112" t="s">
+        <v>16</v>
+      </c>
+      <c r="H112" t="s">
+        <v>4</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J112" s="7">
+        <v>15</v>
+      </c>
+      <c r="K112" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B113" t="s">
+        <v>65</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" t="s">
+        <v>66</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J113" s="7">
+        <v>9</v>
+      </c>
+      <c r="K113" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" t="s">
+        <v>66</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" t="s">
+        <v>21</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J114" s="7">
+        <v>15</v>
+      </c>
+      <c r="K114" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B115" t="s">
+        <v>65</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" t="s">
+        <v>66</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>8</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J115" s="7">
+        <v>10</v>
+      </c>
+      <c r="K115" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B116" t="s">
+        <v>65</v>
+      </c>
+      <c r="C116" t="s">
+        <v>26</v>
+      </c>
+      <c r="D116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E116" t="s">
+        <v>66</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G116" t="s">
+        <v>7</v>
+      </c>
+      <c r="H116" t="s">
+        <v>8</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J116" s="7">
+        <v>11</v>
+      </c>
+      <c r="K116" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B117" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>66</v>
+      </c>
+      <c r="F117" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H117" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I117" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J117" s="18">
+        <v>15</v>
+      </c>
+      <c r="K117" s="18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B118" t="s">
+        <v>65</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>66</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G118" t="s">
+        <v>27</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J118" s="7">
+        <v>10</v>
+      </c>
+      <c r="K118" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B119" t="s">
+        <v>65</v>
+      </c>
+      <c r="C119" t="s">
+        <v>27</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>66</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G119" t="s">
+        <v>6</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J119" s="7">
+        <v>15</v>
+      </c>
+      <c r="K119" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>66</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G120" t="s">
+        <v>29</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J120" s="7">
+        <v>14</v>
+      </c>
+      <c r="K120" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B121" t="s">
+        <v>65</v>
+      </c>
+      <c r="C121" t="s">
+        <v>29</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>66</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>8</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J121" s="7">
+        <v>15</v>
+      </c>
+      <c r="K121" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B122" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>66</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G122" t="s">
+        <v>7</v>
+      </c>
+      <c r="H122" t="s">
+        <v>8</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J122" s="7">
+        <v>15</v>
+      </c>
+      <c r="K122" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B123" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" t="s">
+        <v>66</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G123" t="s">
+        <v>11</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J123" s="7">
+        <v>8</v>
+      </c>
+      <c r="K123" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>66</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G124" t="s">
+        <v>9</v>
+      </c>
+      <c r="H124" t="s">
+        <v>10</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J124" s="7">
+        <v>14</v>
+      </c>
+      <c r="K124" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
+        <v>66</v>
+      </c>
+      <c r="F125" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H125" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J125" s="18">
+        <v>11</v>
+      </c>
+      <c r="K125" s="18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B126" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>66</v>
+      </c>
+      <c r="F126" t="s">
+        <v>93</v>
+      </c>
+      <c r="G126" t="s">
+        <v>29</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J126" s="7">
+        <v>15</v>
+      </c>
+      <c r="K126" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B127" t="s">
+        <v>65</v>
+      </c>
+      <c r="C127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>66</v>
+      </c>
+      <c r="F127" t="s">
+        <v>93</v>
+      </c>
+      <c r="G127" t="s">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J127" s="7">
+        <v>14</v>
+      </c>
+      <c r="K127" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B128" t="s">
+        <v>65</v>
+      </c>
+      <c r="C128" t="s">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>66</v>
+      </c>
+      <c r="F128" t="s">
+        <v>93</v>
+      </c>
+      <c r="G128" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" t="s">
+        <v>8</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J128" s="7">
+        <v>15</v>
+      </c>
+      <c r="K128" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B129" t="s">
+        <v>65</v>
+      </c>
+      <c r="C129" t="s">
+        <v>17</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>66</v>
+      </c>
+      <c r="F129" t="s">
+        <v>93</v>
+      </c>
+      <c r="G129" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J129" s="7">
+        <v>8</v>
+      </c>
+      <c r="K129" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B130" t="s">
+        <v>65</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" t="s">
+        <v>66</v>
+      </c>
+      <c r="F130" t="s">
+        <v>93</v>
+      </c>
+      <c r="G130" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J130" s="7">
+        <v>15</v>
+      </c>
+      <c r="K130" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B131" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>66</v>
+      </c>
+      <c r="F131" t="s">
+        <v>93</v>
+      </c>
+      <c r="G131" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" t="s">
+        <v>4</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J131" s="7">
+        <v>14</v>
+      </c>
+      <c r="K131" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B132" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" t="s">
+        <v>27</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>66</v>
+      </c>
+      <c r="F132" t="s">
+        <v>93</v>
+      </c>
+      <c r="G132" t="s">
+        <v>2</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J132" s="7">
+        <v>4</v>
+      </c>
+      <c r="K132" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B133" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>66</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G133" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I133" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J133" s="18">
+        <v>15</v>
+      </c>
+      <c r="K133" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B134" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>66</v>
+      </c>
+      <c r="F134" t="s">
+        <v>94</v>
+      </c>
+      <c r="G134" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J134" s="7">
+        <v>15</v>
+      </c>
+      <c r="K134" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B135" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135" t="s">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>66</v>
+      </c>
+      <c r="F135" t="s">
+        <v>94</v>
+      </c>
+      <c r="G135" t="s">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J135" s="7">
+        <v>6</v>
+      </c>
+      <c r="K135" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B136" t="s">
+        <v>65</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" t="s">
+        <v>66</v>
+      </c>
+      <c r="F136" t="s">
+        <v>94</v>
+      </c>
+      <c r="G136" t="s">
+        <v>2</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J136" s="7">
+        <v>15</v>
+      </c>
+      <c r="K136" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B137" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>66</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G137" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H137" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I137" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J137" s="18">
+        <v>12</v>
+      </c>
+      <c r="K137" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B138" t="s">
+        <v>65</v>
+      </c>
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>66</v>
+      </c>
+      <c r="F138" t="s">
+        <v>95</v>
+      </c>
+      <c r="G138" t="s">
+        <v>3</v>
+      </c>
+      <c r="H138" t="s">
+        <v>4</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J138" s="7">
+        <v>15</v>
+      </c>
+      <c r="K138" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" s="9" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B139" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E139" t="s">
+        <v>66</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H139" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I139" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="J139" s="18">
+        <v>11</v>
+      </c>
+      <c r="K139" s="18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:K1" xr:uid="{56CFA784-5D81-4A15-A22C-1FCE7244A298}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/women/W_2019_12_Cup_USK.xlsx
+++ b/data/women/W_2019_12_Cup_USK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3992C213-C3AF-41E3-ACB7-5B60AFC07693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB1729E-EBFC-4CF4-BBCE-23B2A62DB4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11112" yWindow="-15588" windowWidth="15228" windowHeight="12360" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1152" yWindow="-16176" windowWidth="18624" windowHeight="16392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initiation" sheetId="1" r:id="rId1"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1560,7 +1560,7 @@
   </sheetData>
   <autoFilter ref="A1:F43" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F43">
-      <sortCondition ref="A1"/>
+      <sortCondition ref="B1:B43"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1572,8 +1572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA23FFA4-FC48-412F-A585-742B04BD9237}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,32 +1626,32 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <f>G2-I2</f>
-        <v>11</v>
+        <f t="shared" ref="H2:H43" si="0">G2-I2</f>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>73</v>
@@ -1668,10 +1668,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1680,20 +1680,20 @@
         <v>64</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H43" si="0">G3-I3</f>
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>73</v>
@@ -1710,32 +1710,32 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>-19</v>
       </c>
       <c r="J4" t="s">
         <v>73</v>
@@ -1752,32 +1752,32 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" t="s">
         <v>73</v>
@@ -1836,32 +1836,32 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.83333333333333337</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>-4</v>
       </c>
       <c r="J7" t="s">
         <v>73</v>
@@ -1878,32 +1878,32 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>0.83333333333333337</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
         <v>73</v>
@@ -1920,32 +1920,32 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.83333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="G9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J9" t="s">
         <v>73</v>
@@ -1962,32 +1962,32 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I10">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J10" t="s">
         <v>73</v>
@@ -2004,32 +2004,32 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>0.83333333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>73</v>
@@ -2046,32 +2046,32 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>-22</v>
       </c>
       <c r="J12" t="s">
         <v>73</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -2100,20 +2100,20 @@
         <v>64</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F13">
-        <v>0.66666666666666663</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J13" t="s">
         <v>73</v>
@@ -2130,10 +2130,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -2142,20 +2142,20 @@
         <v>64</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>73</v>
@@ -2172,32 +2172,32 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>0.66666666666666663</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G15">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
         <v>73</v>
@@ -2214,32 +2214,32 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.66666666666666663</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>-15</v>
       </c>
       <c r="J16" t="s">
         <v>73</v>
@@ -2256,32 +2256,32 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G17">
         <v>24</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>73</v>
@@ -2298,32 +2298,32 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>64</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G18">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="J18" t="s">
         <v>73</v>
@@ -2340,32 +2340,32 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>64</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>-11</v>
       </c>
       <c r="J19" t="s">
         <v>73</v>
@@ -2382,32 +2382,32 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>-19</v>
       </c>
       <c r="J20" t="s">
         <v>73</v>
@@ -2424,32 +2424,32 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>64</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J21" t="s">
         <v>73</v>
@@ -2466,32 +2466,32 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>0.5</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G22">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="J22" t="s">
         <v>73</v>
@@ -2508,13 +2508,13 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
@@ -2526,14 +2526,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G23">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>-10</v>
       </c>
       <c r="J23" t="s">
         <v>73</v>
@@ -2550,13 +2550,13 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -2568,14 +2568,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G24">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="J24" t="s">
         <v>73</v>
@@ -2592,13 +2592,13 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>64</v>
@@ -2610,14 +2610,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G25">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="J25" t="s">
         <v>73</v>
@@ -2634,10 +2634,10 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -2646,20 +2646,20 @@
         <v>64</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="G26">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I26">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
         <v>73</v>
@@ -2676,32 +2676,32 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
         <v>64</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G27">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I27">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="J27" t="s">
         <v>73</v>
@@ -2718,32 +2718,32 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>64</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F28">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="I28">
-        <v>-5</v>
+        <v>17</v>
       </c>
       <c r="J28" t="s">
         <v>73</v>
@@ -2760,13 +2760,13 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>64</v>
@@ -2778,14 +2778,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G29">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I29">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>73</v>
@@ -2802,13 +2802,13 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>64</v>
@@ -2820,14 +2820,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G30">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I30">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="J30" t="s">
         <v>73</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>23</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
@@ -2862,14 +2862,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G31">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H31">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I31">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
         <v>73</v>
@@ -2886,32 +2886,32 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
         <v>64</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G32">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H32">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="I32">
-        <v>-9</v>
+        <v>8</v>
       </c>
       <c r="J32" t="s">
         <v>73</v>
@@ -2928,32 +2928,32 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>64</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F33">
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="I33">
-        <v>-10</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
         <v>73</v>
@@ -2970,13 +2970,13 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
         <v>64</v>
@@ -2988,14 +2988,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G34">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I34">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="J34" t="s">
         <v>73</v>
@@ -3012,13 +3012,13 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
         <v>64</v>
@@ -3030,14 +3030,14 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G35">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="I35">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="J35" t="s">
         <v>73</v>
@@ -3054,32 +3054,32 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>64</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36">
-        <v>0.33333333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G36">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I36">
-        <v>-13</v>
+        <v>9</v>
       </c>
       <c r="J36" t="s">
         <v>73</v>
@@ -3096,29 +3096,29 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>64</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G37">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I37">
         <v>-5</v>
@@ -3138,32 +3138,32 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>64</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F38">
-        <v>0.16666666666666666</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G38">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I38">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="J38" t="s">
         <v>73</v>
@@ -3222,32 +3222,32 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>64</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G40">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I40">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>73</v>
@@ -3264,32 +3264,32 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>64</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G41">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I41">
-        <v>-19</v>
+        <v>9</v>
       </c>
       <c r="J41" t="s">
         <v>73</v>
@@ -3306,32 +3306,32 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>64</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="G42">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I42">
-        <v>-19</v>
+        <v>13</v>
       </c>
       <c r="J42" t="s">
         <v>73</v>
@@ -3348,32 +3348,32 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
         <v>64</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G43">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I43">
-        <v>-22</v>
+        <v>-6</v>
       </c>
       <c r="J43" t="s">
         <v>73</v>
@@ -3389,7 +3389,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{DA23FFA4-FC48-412F-A585-742B04BD9237}"/>
+  <autoFilter ref="A1:M1" xr:uid="{DA23FFA4-FC48-412F-A585-742B04BD9237}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M43">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3399,8 +3403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA91E2E-F813-4D5B-8DDE-7F01E8593249}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3440,19 +3444,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>64</v>
       </c>
       <c r="E2" s="1">
-        <v>36325</v>
+        <v>37414</v>
       </c>
       <c r="F2" s="1">
         <v>43807</v>
@@ -3466,19 +3470,19 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>64</v>
       </c>
       <c r="E3" s="1">
-        <v>33018</v>
+        <v>37371</v>
       </c>
       <c r="F3" s="1">
         <v>43807</v>
@@ -3492,19 +3496,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
       </c>
       <c r="E4" s="1">
-        <v>37371</v>
+        <v>26604</v>
       </c>
       <c r="F4" s="1">
         <v>43807</v>
@@ -3518,19 +3522,19 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>64</v>
       </c>
       <c r="E5" s="1">
-        <v>33010</v>
+        <v>36617</v>
       </c>
       <c r="F5" s="1">
         <v>43807</v>
@@ -3544,19 +3548,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
         <v>64</v>
       </c>
       <c r="E6" s="1">
-        <v>34911</v>
+        <v>37189</v>
       </c>
       <c r="F6" s="1">
         <v>43807</v>
@@ -3570,19 +3574,19 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>64</v>
       </c>
       <c r="E7" s="1">
-        <v>36429</v>
+        <v>32455</v>
       </c>
       <c r="F7" s="1">
         <v>43807</v>
@@ -3596,10 +3600,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
@@ -3608,7 +3612,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="1">
-        <v>36130</v>
+        <v>33010</v>
       </c>
       <c r="F8" s="1">
         <v>43807</v>
@@ -3622,19 +3626,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>64</v>
       </c>
       <c r="E9" s="1">
-        <v>36310</v>
+        <v>33437</v>
       </c>
       <c r="F9" s="1">
         <v>43807</v>
@@ -3648,19 +3652,19 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>64</v>
       </c>
       <c r="E10" s="1">
-        <v>37189</v>
+        <v>37509</v>
       </c>
       <c r="F10" s="1">
         <v>43807</v>
@@ -3674,19 +3678,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="1">
-        <v>37441</v>
+        <v>34902</v>
       </c>
       <c r="F11" s="1">
         <v>43807</v>
@@ -3700,19 +3704,19 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
         <v>64</v>
       </c>
       <c r="E12" s="1">
-        <v>36617</v>
+        <v>33956</v>
       </c>
       <c r="F12" s="1">
         <v>43807</v>
@@ -3726,19 +3730,19 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="1">
-        <v>36590</v>
+        <v>34628</v>
       </c>
       <c r="F13" s="1">
         <v>43807</v>
@@ -3752,19 +3756,19 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="1">
-        <v>36481</v>
+        <v>36590</v>
       </c>
       <c r="F14" s="1">
         <v>43807</v>
@@ -3778,19 +3782,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
         <v>64</v>
       </c>
       <c r="E15" s="1">
-        <v>36091</v>
+        <v>36590</v>
       </c>
       <c r="F15" s="1">
         <v>43807</v>
@@ -3804,19 +3808,19 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>64</v>
       </c>
       <c r="E16" s="1">
-        <v>33437</v>
+        <v>35863</v>
       </c>
       <c r="F16" s="1">
         <v>43807</v>
@@ -3830,19 +3834,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
         <v>64</v>
       </c>
       <c r="E17" s="1">
-        <v>36889</v>
+        <v>34873</v>
       </c>
       <c r="F17" s="1">
         <v>43807</v>
@@ -3856,19 +3860,19 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
         <v>64</v>
       </c>
       <c r="E18" s="1">
-        <v>34628</v>
+        <v>36889</v>
       </c>
       <c r="F18" s="1">
         <v>43807</v>
@@ -3882,19 +3886,19 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>64</v>
       </c>
       <c r="E19" s="1">
-        <v>37414</v>
+        <v>26851</v>
       </c>
       <c r="F19" s="1">
         <v>43807</v>
@@ -3908,19 +3912,19 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>64</v>
       </c>
       <c r="E20" s="1">
-        <v>32792</v>
+        <v>35681</v>
       </c>
       <c r="F20" s="1">
         <v>43807</v>
@@ -3934,19 +3938,19 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21" t="s">
         <v>64</v>
       </c>
       <c r="E21" s="1">
-        <v>34902</v>
+        <v>36091</v>
       </c>
       <c r="F21" s="1">
         <v>43807</v>
@@ -3960,19 +3964,19 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" t="s">
-        <v>8</v>
       </c>
       <c r="D22" t="s">
         <v>64</v>
       </c>
       <c r="E22" s="1">
-        <v>36590</v>
+        <v>35259</v>
       </c>
       <c r="F22" s="1">
         <v>43807</v>
@@ -3986,19 +3990,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
       </c>
       <c r="E23" s="1">
-        <v>36199</v>
+        <v>37200</v>
       </c>
       <c r="F23" s="1">
         <v>43807</v>
@@ -4012,19 +4016,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
       </c>
       <c r="E24" s="1">
-        <v>34873</v>
+        <v>36404</v>
       </c>
       <c r="F24" s="1">
         <v>43807</v>
@@ -4038,19 +4042,19 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="1">
-        <v>37444</v>
+        <v>35577</v>
       </c>
       <c r="F25" s="1">
         <v>43807</v>
@@ -4064,10 +4068,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -4076,7 +4080,7 @@
         <v>64</v>
       </c>
       <c r="E26" s="1">
-        <v>37171</v>
+        <v>36130</v>
       </c>
       <c r="F26" s="1">
         <v>43807</v>
@@ -4090,19 +4094,19 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
         <v>64</v>
       </c>
       <c r="E27" s="1">
-        <v>37509</v>
+        <v>37401</v>
       </c>
       <c r="F27" s="1">
         <v>43807</v>
@@ -4116,19 +4120,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>64</v>
       </c>
       <c r="E28" s="1">
-        <v>32455</v>
+        <v>33018</v>
       </c>
       <c r="F28" s="1">
         <v>43807</v>
@@ -4142,19 +4146,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>64</v>
       </c>
       <c r="E29" s="1">
-        <v>35707</v>
+        <v>36310</v>
       </c>
       <c r="F29" s="1">
         <v>43807</v>
@@ -4168,19 +4172,19 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>64</v>
       </c>
       <c r="E30" s="1">
-        <v>35259</v>
+        <v>37444</v>
       </c>
       <c r="F30" s="1">
         <v>43807</v>
@@ -4194,19 +4198,19 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>38</v>
-      </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D31" t="s">
         <v>64</v>
       </c>
       <c r="E31" s="1">
-        <v>37597</v>
+        <v>36199</v>
       </c>
       <c r="F31" s="1">
         <v>43807</v>
@@ -4220,19 +4224,19 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
         <v>64</v>
       </c>
       <c r="E32" s="1">
-        <v>36404</v>
+        <v>36481</v>
       </c>
       <c r="F32" s="1">
         <v>43807</v>
@@ -4246,19 +4250,19 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
         <v>64</v>
       </c>
       <c r="E33" s="1">
-        <v>38143</v>
+        <v>36325</v>
       </c>
       <c r="F33" s="1">
         <v>43807</v>
@@ -4272,19 +4276,19 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D34" t="s">
         <v>64</v>
       </c>
       <c r="E34" s="1">
-        <v>35577</v>
+        <v>37597</v>
       </c>
       <c r="F34" s="1">
         <v>43807</v>
@@ -4298,19 +4302,19 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
         <v>64</v>
       </c>
       <c r="E35" s="1">
-        <v>37200</v>
+        <v>36101</v>
       </c>
       <c r="F35" s="1">
         <v>43807</v>
@@ -4324,19 +4328,19 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D36" t="s">
         <v>64</v>
       </c>
       <c r="E36" s="1">
-        <v>26851</v>
+        <v>34911</v>
       </c>
       <c r="F36" s="1">
         <v>43807</v>
@@ -4350,19 +4354,19 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D37" t="s">
         <v>64</v>
       </c>
       <c r="E37" s="1">
-        <v>36101</v>
+        <v>35707</v>
       </c>
       <c r="F37" s="1">
         <v>43807</v>
@@ -4376,19 +4380,19 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
         <v>64</v>
       </c>
       <c r="E38" s="1">
-        <v>37401</v>
+        <v>36429</v>
       </c>
       <c r="F38" s="1">
         <v>43807</v>
@@ -4428,19 +4432,19 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D40" t="s">
         <v>64</v>
       </c>
       <c r="E40" s="1">
-        <v>35863</v>
+        <v>32792</v>
       </c>
       <c r="F40" s="1">
         <v>43807</v>
@@ -4454,19 +4458,19 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
         <v>64</v>
       </c>
       <c r="E41" s="1">
-        <v>26604</v>
+        <v>37171</v>
       </c>
       <c r="F41" s="1">
         <v>43807</v>
@@ -4480,19 +4484,19 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
         <v>64</v>
       </c>
       <c r="E42" s="1">
-        <v>35681</v>
+        <v>37441</v>
       </c>
       <c r="F42" s="1">
         <v>43807</v>
@@ -4506,19 +4510,19 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="D43" t="s">
         <v>64</v>
       </c>
       <c r="E43" s="1">
-        <v>33956</v>
+        <v>38143</v>
       </c>
       <c r="F43" s="1">
         <v>43807</v>
@@ -4531,7 +4535,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1" xr:uid="{6CA91E2E-F813-4D5B-8DDE-7F01E8593249}"/>
+  <autoFilter ref="A1:H1" xr:uid="{6CA91E2E-F813-4D5B-8DDE-7F01E8593249}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13425,8 +13433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CFA784-5D81-4A15-A22C-1FCE7244A298}">
   <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/women/W_2019_12_Cup_USK.xlsx
+++ b/data/women/W_2019_12_Cup_USK.xlsx
@@ -1,32 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jzelenka\Documents\python_j\fencing\data\women\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB1729E-EBFC-4CF4-BBCE-23B2A62DB4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D0D179-3C47-496C-BC52-BDDE3DA02A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1152" yWindow="-16176" windowWidth="18624" windowHeight="16392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="-10080" windowWidth="23040" windowHeight="7716" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="initiation" sheetId="1" r:id="rId1"/>
-    <sheet name="first_round" sheetId="2" r:id="rId2"/>
-    <sheet name="total_rank" sheetId="3" r:id="rId3"/>
-    <sheet name="pools" sheetId="4" r:id="rId4"/>
-    <sheet name="eliminations" sheetId="5" r:id="rId5"/>
+    <sheet name="total" sheetId="6" r:id="rId1"/>
+    <sheet name="initiation" sheetId="1" r:id="rId2"/>
+    <sheet name="first_round" sheetId="2" r:id="rId3"/>
+    <sheet name="total_rank" sheetId="3" r:id="rId4"/>
+    <sheet name="pools" sheetId="4" r:id="rId5"/>
+    <sheet name="eliminations" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">eliminations!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">first_round!$A$1:$M$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">initiation!$A$1:$F$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pools!$A$1:$K$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">total_rank!$A$1:$H$1</definedName>
-    <definedName name="ExternalData_1" localSheetId="1" hidden="1">first_round!#REF!</definedName>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">total_rank!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">eliminations!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">first_round!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">initiation!$A$1:$F$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">pools!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">total!$A$1:$Q$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">total_rank!$A$1:$H$1</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">first_round!#REF!</definedName>
+    <definedName name="ExternalData_1" localSheetId="3" hidden="1">total_rank!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -85,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="97">
   <si>
     <t>SALIGEROVÁ Kateřina</t>
   </si>
@@ -374,6 +376,9 @@
   <si>
     <t>Eliminace_2</t>
   </si>
+  <si>
+    <t>Percentil</t>
+  </si>
 </sst>
 </file>
 
@@ -450,7 +455,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -487,6 +492,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,11 +772,2314 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6591F2BB-D088-4431-9E38-64C1EF7798CF}">
+  <dimension ref="A1:Q43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1">
+        <v>37414</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K2">
+        <v>24</v>
+      </c>
+      <c r="L2">
+        <f>K2-M2</f>
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2">
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="20">
+        <f>P2/MAX($P$2:$P$43)</f>
+        <v>0.42857142857142855</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1">
+        <v>37371</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K3">
+        <v>27</v>
+      </c>
+      <c r="L3">
+        <f>K3-M3</f>
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+      <c r="P3">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="20">
+        <f t="shared" ref="Q3:Q43" si="0">P3/MAX($P$2:$P$43)</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1">
+        <v>26604</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <f>K4-M4</f>
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>-19</v>
+      </c>
+      <c r="N4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4">
+        <v>40</v>
+      </c>
+      <c r="P4">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" si="0"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1">
+        <v>36617</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K5">
+        <v>27</v>
+      </c>
+      <c r="L5">
+        <f>K5-M5</f>
+        <v>16</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5">
+        <v>7</v>
+      </c>
+      <c r="P5">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="0"/>
+        <v>0.26190476190476192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="1">
+        <v>37189</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K6">
+        <v>29</v>
+      </c>
+      <c r="L6">
+        <f>K6-M6</f>
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1">
+        <v>32455</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K7">
+        <v>18</v>
+      </c>
+      <c r="L7">
+        <f>K7-M7</f>
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>-4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7">
+        <v>26</v>
+      </c>
+      <c r="P7">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="0"/>
+        <v>0.6428571428571429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1">
+        <v>33010</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="20">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>30</v>
+      </c>
+      <c r="L8">
+        <f>K8-M8</f>
+        <v>13</v>
+      </c>
+      <c r="M8">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+      <c r="P8">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="0"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1">
+        <v>33437</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <v>26</v>
+      </c>
+      <c r="L9">
+        <f>K9-M9</f>
+        <v>20</v>
+      </c>
+      <c r="M9">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9">
+        <v>19</v>
+      </c>
+      <c r="P9">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="0"/>
+        <v>0.35714285714285715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1">
+        <v>37509</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K10">
+        <v>24</v>
+      </c>
+      <c r="L10">
+        <f>K10-M10</f>
+        <v>25</v>
+      </c>
+      <c r="M10">
+        <v>-1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>73</v>
+      </c>
+      <c r="O10">
+        <v>18</v>
+      </c>
+      <c r="P10">
+        <v>26</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="0"/>
+        <v>0.61904761904761907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1">
+        <v>34902</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K11">
+        <v>21</v>
+      </c>
+      <c r="L11">
+        <f>K11-M11</f>
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11">
+        <v>17</v>
+      </c>
+      <c r="P11">
+        <v>20</v>
+      </c>
+      <c r="Q11" s="20">
+        <f t="shared" si="0"/>
+        <v>0.47619047619047616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1">
+        <v>33956</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <f>K12-M12</f>
+        <v>30</v>
+      </c>
+      <c r="M12">
+        <v>-22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>73</v>
+      </c>
+      <c r="O12">
+        <v>42</v>
+      </c>
+      <c r="P12">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="1">
+        <v>34628</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+      <c r="J13" s="20">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>30</v>
+      </c>
+      <c r="L13">
+        <f>K13-M13</f>
+        <v>18</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
+      </c>
+      <c r="N13" t="s">
+        <v>73</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13">
+        <v>17</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="0"/>
+        <v>0.40476190476190477</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K14">
+        <v>21</v>
+      </c>
+      <c r="L14">
+        <f>K14-M14</f>
+        <v>19</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>73</v>
+      </c>
+      <c r="O14">
+        <v>21</v>
+      </c>
+      <c r="P14">
+        <v>21</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="1">
+        <v>36590</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K15">
+        <v>27</v>
+      </c>
+      <c r="L15">
+        <f>K15-M15</f>
+        <v>18</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+      <c r="N15" t="s">
+        <v>73</v>
+      </c>
+      <c r="O15">
+        <v>9</v>
+      </c>
+      <c r="P15">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="1">
+        <v>35863</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="20">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <f>K16-M16</f>
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>-15</v>
+      </c>
+      <c r="N16" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16">
+        <v>39</v>
+      </c>
+      <c r="P16">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="0"/>
+        <v>0.9285714285714286</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="1">
+        <v>34873</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K17">
+        <v>24</v>
+      </c>
+      <c r="L17">
+        <f>K17-M17</f>
+        <v>24</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17">
+        <v>24</v>
+      </c>
+      <c r="P17">
+        <v>23</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.54761904761904767</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="1">
+        <v>36889</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K18">
+        <v>19</v>
+      </c>
+      <c r="L18">
+        <f>K18-M18</f>
+        <v>28</v>
+      </c>
+      <c r="M18">
+        <v>-9</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18">
+        <v>31</v>
+      </c>
+      <c r="P18">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="0"/>
+        <v>0.38095238095238093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="1">
+        <v>26851</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K19">
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <f>K19-M19</f>
+        <v>28</v>
+      </c>
+      <c r="M19">
+        <v>-11</v>
+      </c>
+      <c r="N19" t="s">
+        <v>73</v>
+      </c>
+      <c r="O19">
+        <v>33</v>
+      </c>
+      <c r="P19">
+        <v>35</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="1">
+        <v>35681</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>11</v>
+      </c>
+      <c r="L20">
+        <f>K20-M20</f>
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>-19</v>
+      </c>
+      <c r="N20" t="s">
+        <v>73</v>
+      </c>
+      <c r="O20">
+        <v>40</v>
+      </c>
+      <c r="P20">
+        <v>40</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="0"/>
+        <v>0.95238095238095233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="1">
+        <v>36091</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K21">
+        <v>23</v>
+      </c>
+      <c r="L21">
+        <f>K21-M21</f>
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>73</v>
+      </c>
+      <c r="O21">
+        <v>15</v>
+      </c>
+      <c r="P21">
+        <v>14</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="1">
+        <v>35259</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K22">
+        <v>19</v>
+      </c>
+      <c r="L22">
+        <f>K22-M22</f>
+        <v>24</v>
+      </c>
+      <c r="M22">
+        <v>-5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>73</v>
+      </c>
+      <c r="O22">
+        <v>29</v>
+      </c>
+      <c r="P22">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="0"/>
+        <v>0.69047619047619047</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="1">
+        <v>37200</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K23">
+        <v>18</v>
+      </c>
+      <c r="L23">
+        <f>K23-M23</f>
+        <v>28</v>
+      </c>
+      <c r="M23">
+        <v>-10</v>
+      </c>
+      <c r="N23" t="s">
+        <v>73</v>
+      </c>
+      <c r="O23">
+        <v>32</v>
+      </c>
+      <c r="P23">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="1">
+        <v>36404</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K24">
+        <v>17</v>
+      </c>
+      <c r="L24">
+        <f>K24-M24</f>
+        <v>28</v>
+      </c>
+      <c r="M24">
+        <v>-11</v>
+      </c>
+      <c r="N24" t="s">
+        <v>73</v>
+      </c>
+      <c r="O24">
+        <v>33</v>
+      </c>
+      <c r="P24">
+        <v>31</v>
+      </c>
+      <c r="Q24" s="20">
+        <f t="shared" si="0"/>
+        <v>0.73809523809523814</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="1">
+        <v>35577</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <f>K25-M25</f>
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>-5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>73</v>
+      </c>
+      <c r="O25">
+        <v>28</v>
+      </c>
+      <c r="P25">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="1">
+        <v>36130</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="K26">
+        <v>24</v>
+      </c>
+      <c r="L26">
+        <f>K26-M26</f>
+        <v>19</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>73</v>
+      </c>
+      <c r="O26">
+        <v>20</v>
+      </c>
+      <c r="P26">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="20">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="1">
+        <v>37401</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="20">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K27">
+        <v>23</v>
+      </c>
+      <c r="L27">
+        <f>K27-M27</f>
+        <v>28</v>
+      </c>
+      <c r="M27">
+        <v>-5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>73</v>
+      </c>
+      <c r="O27">
+        <v>36</v>
+      </c>
+      <c r="P27">
+        <v>37</v>
+      </c>
+      <c r="Q27" s="20">
+        <f t="shared" si="0"/>
+        <v>0.88095238095238093</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="1">
+        <v>33018</v>
+      </c>
+      <c r="I28">
+        <v>6</v>
+      </c>
+      <c r="J28" s="20">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>30</v>
+      </c>
+      <c r="L28">
+        <f>K28-M28</f>
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>17</v>
+      </c>
+      <c r="N28" t="s">
+        <v>73</v>
+      </c>
+      <c r="O28">
+        <v>2</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="20">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="1">
+        <v>36310</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K29">
+        <v>22</v>
+      </c>
+      <c r="L29">
+        <f>K29-M29</f>
+        <v>21</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>73</v>
+      </c>
+      <c r="O29">
+        <v>22</v>
+      </c>
+      <c r="P29">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="20">
+        <f t="shared" si="0"/>
+        <v>0.19047619047619047</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="1">
+        <v>37444</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K30">
+        <v>21</v>
+      </c>
+      <c r="L30">
+        <f>K30-M30</f>
+        <v>24</v>
+      </c>
+      <c r="M30">
+        <v>-3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>73</v>
+      </c>
+      <c r="O30">
+        <v>25</v>
+      </c>
+      <c r="P30">
+        <v>24</v>
+      </c>
+      <c r="Q30" s="20">
+        <f t="shared" si="0"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="1">
+        <v>36199</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K31">
+        <v>26</v>
+      </c>
+      <c r="L31">
+        <f>K31-M31</f>
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" t="s">
+        <v>73</v>
+      </c>
+      <c r="O31">
+        <v>23</v>
+      </c>
+      <c r="P31">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="20">
+        <f t="shared" si="0"/>
+        <v>0.52380952380952384</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="1">
+        <v>36481</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K32">
+        <v>27</v>
+      </c>
+      <c r="L32">
+        <f>K32-M32</f>
+        <v>19</v>
+      </c>
+      <c r="M32">
+        <v>8</v>
+      </c>
+      <c r="N32" t="s">
+        <v>73</v>
+      </c>
+      <c r="O32">
+        <v>12</v>
+      </c>
+      <c r="P32">
+        <v>13</v>
+      </c>
+      <c r="Q32" s="20">
+        <f t="shared" si="0"/>
+        <v>0.30952380952380953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="4"/>
+      <c r="H33" s="1">
+        <v>36325</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33" s="20">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>30</v>
+      </c>
+      <c r="L33">
+        <f>K33-M33</f>
+        <v>11</v>
+      </c>
+      <c r="M33">
+        <v>19</v>
+      </c>
+      <c r="N33" t="s">
+        <v>73</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="20">
+        <f t="shared" si="0"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="1">
+        <v>37597</v>
+      </c>
+      <c r="I34">
+        <v>2</v>
+      </c>
+      <c r="J34" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K34">
+        <v>19</v>
+      </c>
+      <c r="L34">
+        <f>K34-M34</f>
+        <v>25</v>
+      </c>
+      <c r="M34">
+        <v>-6</v>
+      </c>
+      <c r="N34" t="s">
+        <v>73</v>
+      </c>
+      <c r="O34">
+        <v>30</v>
+      </c>
+      <c r="P34">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="1">
+        <v>36101</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K35">
+        <v>15</v>
+      </c>
+      <c r="L35">
+        <f>K35-M35</f>
+        <v>28</v>
+      </c>
+      <c r="M35">
+        <v>-13</v>
+      </c>
+      <c r="N35" t="s">
+        <v>73</v>
+      </c>
+      <c r="O35">
+        <v>35</v>
+      </c>
+      <c r="P35">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="20">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="4"/>
+      <c r="H36" s="1">
+        <v>34911</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K36">
+        <v>26</v>
+      </c>
+      <c r="L36">
+        <f>K36-M36</f>
+        <v>17</v>
+      </c>
+      <c r="M36">
+        <v>9</v>
+      </c>
+      <c r="N36" t="s">
+        <v>73</v>
+      </c>
+      <c r="O36">
+        <v>11</v>
+      </c>
+      <c r="P36">
+        <v>5</v>
+      </c>
+      <c r="Q36" s="20">
+        <f t="shared" si="0"/>
+        <v>0.11904761904761904</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="4"/>
+      <c r="H37" s="1">
+        <v>35707</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37" s="20">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K37">
+        <v>21</v>
+      </c>
+      <c r="L37">
+        <f>K37-M37</f>
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>-5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37">
+        <v>27</v>
+      </c>
+      <c r="P37">
+        <v>28</v>
+      </c>
+      <c r="Q37" s="20">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="1">
+        <v>36429</v>
+      </c>
+      <c r="I38">
+        <v>4</v>
+      </c>
+      <c r="J38" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K38">
+        <v>24</v>
+      </c>
+      <c r="L38">
+        <f>K38-M38</f>
+        <v>16</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38" t="s">
+        <v>73</v>
+      </c>
+      <c r="O38">
+        <v>13</v>
+      </c>
+      <c r="P38">
+        <v>6</v>
+      </c>
+      <c r="Q38" s="20">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="4"/>
+      <c r="H39" s="1">
+        <v>34153</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="20">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K39">
+        <v>13</v>
+      </c>
+      <c r="L39">
+        <f>K39-M39</f>
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>-16</v>
+      </c>
+      <c r="N39" t="s">
+        <v>73</v>
+      </c>
+      <c r="O39">
+        <v>38</v>
+      </c>
+      <c r="P39">
+        <v>38</v>
+      </c>
+      <c r="Q39" s="20">
+        <f t="shared" si="0"/>
+        <v>0.90476190476190477</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="4"/>
+      <c r="H40" s="1">
+        <v>32792</v>
+      </c>
+      <c r="I40">
+        <v>4</v>
+      </c>
+      <c r="J40" s="20">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K40">
+        <v>24</v>
+      </c>
+      <c r="L40">
+        <f>K40-M40</f>
+        <v>22</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>73</v>
+      </c>
+      <c r="O40">
+        <v>16</v>
+      </c>
+      <c r="P40">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="20">
+        <f t="shared" si="0"/>
+        <v>0.45238095238095238</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="1">
+        <v>37171</v>
+      </c>
+      <c r="I41">
+        <v>5</v>
+      </c>
+      <c r="J41" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K41">
+        <v>27</v>
+      </c>
+      <c r="L41">
+        <f>K41-M41</f>
+        <v>18</v>
+      </c>
+      <c r="M41">
+        <v>9</v>
+      </c>
+      <c r="N41" t="s">
+        <v>73</v>
+      </c>
+      <c r="O41">
+        <v>9</v>
+      </c>
+      <c r="P41">
+        <v>25</v>
+      </c>
+      <c r="Q41" s="20">
+        <f t="shared" si="0"/>
+        <v>0.59523809523809523</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="1">
+        <v>37441</v>
+      </c>
+      <c r="I42">
+        <v>5</v>
+      </c>
+      <c r="J42" s="20">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="K42">
+        <v>29</v>
+      </c>
+      <c r="L42">
+        <f>K42-M42</f>
+        <v>16</v>
+      </c>
+      <c r="M42">
+        <v>13</v>
+      </c>
+      <c r="N42" t="s">
+        <v>73</v>
+      </c>
+      <c r="O42">
+        <v>6</v>
+      </c>
+      <c r="P42">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="20">
+        <f t="shared" si="0"/>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="1">
+        <v>38143</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43" s="20">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K43">
+        <v>21</v>
+      </c>
+      <c r="L43">
+        <f>K43-M43</f>
+        <v>27</v>
+      </c>
+      <c r="M43">
+        <v>-6</v>
+      </c>
+      <c r="N43" t="s">
+        <v>73</v>
+      </c>
+      <c r="O43">
+        <v>37</v>
+      </c>
+      <c r="P43">
+        <v>32</v>
+      </c>
+      <c r="Q43" s="20">
+        <f t="shared" si="0"/>
+        <v>0.76190476190476186</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:Q1" xr:uid="{6591F2BB-D088-4431-9E38-64C1EF7798CF}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1568,12 +3877,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA23FFA4-FC48-412F-A585-742B04BD9237}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1647,7 +3956,7 @@
         <v>24</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H43" si="0">G2-I2</f>
+        <f>G2-I2</f>
         <v>20</v>
       </c>
       <c r="I2">
@@ -1689,7 +3998,7 @@
         <v>27</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
+        <f>G3-I3</f>
         <v>17</v>
       </c>
       <c r="I3">
@@ -1731,7 +4040,7 @@
         <v>11</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>G4-I4</f>
         <v>30</v>
       </c>
       <c r="I4">
@@ -1773,7 +4082,7 @@
         <v>27</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>G5-I5</f>
         <v>16</v>
       </c>
       <c r="I5">
@@ -1815,7 +4124,7 @@
         <v>29</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>G6-I6</f>
         <v>11</v>
       </c>
       <c r="I6">
@@ -1857,7 +4166,7 @@
         <v>18</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f>G7-I7</f>
         <v>22</v>
       </c>
       <c r="I7">
@@ -1899,7 +4208,7 @@
         <v>30</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f>G8-I8</f>
         <v>13</v>
       </c>
       <c r="I8">
@@ -1941,7 +4250,7 @@
         <v>26</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f>G9-I9</f>
         <v>20</v>
       </c>
       <c r="I9">
@@ -1983,7 +4292,7 @@
         <v>24</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f>G10-I10</f>
         <v>25</v>
       </c>
       <c r="I10">
@@ -2025,7 +4334,7 @@
         <v>21</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f>G11-I11</f>
         <v>20</v>
       </c>
       <c r="I11">
@@ -2067,7 +4376,7 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f>G12-I12</f>
         <v>30</v>
       </c>
       <c r="I12">
@@ -2109,7 +4418,7 @@
         <v>30</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f>G13-I13</f>
         <v>18</v>
       </c>
       <c r="I13">
@@ -2151,7 +4460,7 @@
         <v>21</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f>G14-I14</f>
         <v>19</v>
       </c>
       <c r="I14">
@@ -2193,7 +4502,7 @@
         <v>27</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f>G15-I15</f>
         <v>18</v>
       </c>
       <c r="I15">
@@ -2235,7 +4544,7 @@
         <v>15</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f>G16-I16</f>
         <v>30</v>
       </c>
       <c r="I16">
@@ -2277,7 +4586,7 @@
         <v>24</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f>G17-I17</f>
         <v>24</v>
       </c>
       <c r="I17">
@@ -2319,7 +4628,7 @@
         <v>19</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f>G18-I18</f>
         <v>28</v>
       </c>
       <c r="I18">
@@ -2361,7 +4670,7 @@
         <v>17</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f>G19-I19</f>
         <v>28</v>
       </c>
       <c r="I19">
@@ -2403,7 +4712,7 @@
         <v>11</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f>G20-I20</f>
         <v>30</v>
       </c>
       <c r="I20">
@@ -2445,7 +4754,7 @@
         <v>23</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f>G21-I21</f>
         <v>19</v>
       </c>
       <c r="I21">
@@ -2487,7 +4796,7 @@
         <v>19</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f>G22-I22</f>
         <v>24</v>
       </c>
       <c r="I22">
@@ -2529,7 +4838,7 @@
         <v>18</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f>G23-I23</f>
         <v>28</v>
       </c>
       <c r="I23">
@@ -2571,7 +4880,7 @@
         <v>17</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f>G24-I24</f>
         <v>28</v>
       </c>
       <c r="I24">
@@ -2613,7 +4922,7 @@
         <v>20</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f>G25-I25</f>
         <v>25</v>
       </c>
       <c r="I25">
@@ -2655,7 +4964,7 @@
         <v>24</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f>G26-I26</f>
         <v>19</v>
       </c>
       <c r="I26">
@@ -2697,7 +5006,7 @@
         <v>23</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f>G27-I27</f>
         <v>28</v>
       </c>
       <c r="I27">
@@ -2739,7 +5048,7 @@
         <v>30</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f>G28-I28</f>
         <v>13</v>
       </c>
       <c r="I28">
@@ -2781,7 +5090,7 @@
         <v>22</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f>G29-I29</f>
         <v>21</v>
       </c>
       <c r="I29">
@@ -2823,7 +5132,7 @@
         <v>21</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f>G30-I30</f>
         <v>24</v>
       </c>
       <c r="I30">
@@ -2865,7 +5174,7 @@
         <v>26</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f>G31-I31</f>
         <v>26</v>
       </c>
       <c r="I31">
@@ -2907,7 +5216,7 @@
         <v>27</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f>G32-I32</f>
         <v>19</v>
       </c>
       <c r="I32">
@@ -2949,7 +5258,7 @@
         <v>30</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f>G33-I33</f>
         <v>11</v>
       </c>
       <c r="I33">
@@ -2991,7 +5300,7 @@
         <v>19</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f>G34-I34</f>
         <v>25</v>
       </c>
       <c r="I34">
@@ -3033,7 +5342,7 @@
         <v>15</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f>G35-I35</f>
         <v>28</v>
       </c>
       <c r="I35">
@@ -3075,7 +5384,7 @@
         <v>26</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f>G36-I36</f>
         <v>17</v>
       </c>
       <c r="I36">
@@ -3117,7 +5426,7 @@
         <v>21</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f>G37-I37</f>
         <v>26</v>
       </c>
       <c r="I37">
@@ -3159,7 +5468,7 @@
         <v>24</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f>G38-I38</f>
         <v>16</v>
       </c>
       <c r="I38">
@@ -3201,7 +5510,7 @@
         <v>13</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f>G39-I39</f>
         <v>29</v>
       </c>
       <c r="I39">
@@ -3243,7 +5552,7 @@
         <v>24</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f>G40-I40</f>
         <v>22</v>
       </c>
       <c r="I40">
@@ -3285,7 +5594,7 @@
         <v>27</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f>G41-I41</f>
         <v>18</v>
       </c>
       <c r="I41">
@@ -3327,7 +5636,7 @@
         <v>29</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f>G42-I42</f>
         <v>16</v>
       </c>
       <c r="I42">
@@ -3369,7 +5678,7 @@
         <v>21</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
+        <f>G43-I43</f>
         <v>27</v>
       </c>
       <c r="I43">
@@ -3399,12 +5708,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA91E2E-F813-4D5B-8DDE-7F01E8593249}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4545,7 +6854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4382A52-A2D6-412F-9594-1C967FB68B9E}">
   <dimension ref="A1:K254"/>
   <sheetViews>
@@ -13429,7 +15738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CFA784-5D81-4A15-A22C-1FCE7244A298}">
   <dimension ref="A1:K140"/>
   <sheetViews>
